--- a/Data/Transitions/19221953Translation.xlsx
+++ b/Data/Transitions/19221953Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="850">
   <si>
     <t>id</t>
   </si>
@@ -28,19 +28,19 @@
     <t>{1.0: 1.0}</t>
   </si>
   <si>
-    <t>{486.0: 0.23030650243483242}</t>
+    <t>{486.0: 0.23351728144060413}</t>
   </si>
   <si>
     <t>{4.0: 1.0}</t>
   </si>
   <si>
-    <t>{5.0: 0.9694199207584238}</t>
+    <t>{5.0: 0.9694640710996556}</t>
   </si>
   <si>
     <t>{6.0: 1.0}</t>
   </si>
   <si>
-    <t>{7.0: 0.9854496071393928}</t>
+    <t>{7.0: 0.9853027630805409}</t>
   </si>
   <si>
     <t>{8.0: 1.0}</t>
@@ -49,16 +49,16 @@
     <t>{9.0: 1.0, 208.0: 0.00029175784099197665}</t>
   </si>
   <si>
-    <t>{10.0: 0.9896835717381881}</t>
-  </si>
-  <si>
-    <t>{11.0: 1.0, 73.0: 0.00042098229282040413}</t>
+    <t>{10.0: 0.9895951735594999}</t>
+  </si>
+  <si>
+    <t>{11.0: 1.0, 73.0: 0.0004209803034445382}</t>
   </si>
   <si>
     <t>{12.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 0.968121687448885, 178.0: 0.00016215071483358378, 623.0: 0.0007617893503810506, 696.0: 0.002913039036710639, 492.0: 1.802917100041169e-05}</t>
+    <t>{14.0: 0.9681719108492928, 178.0: 0.0001631303974672942, 623.0: 0.0007637695367658331, 696.0: 0.0029920449207345716, 492.0: 1.840905823676253e-05}</t>
   </si>
   <si>
     <t>{15.0: 1.0}</t>
@@ -67,7 +67,7 @@
     <t>{16.0: 1.0}</t>
   </si>
   <si>
-    <t>{17.0: 0.9739444451087542}</t>
+    <t>{17.0: 0.9740081016084345}</t>
   </si>
   <si>
     <t>{18.0: 1.0}</t>
@@ -79,7 +79,7 @@
     <t>{32.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.6015689512799339}</t>
+    <t>{679.0: 0.4935636856368564}</t>
   </si>
   <si>
     <t>{34.0: 1.0, 995.0: 1.0}</t>
@@ -94,22 +94,22 @@
     <t>{43.0: 1.0}</t>
   </si>
   <si>
-    <t>{44.0: 0.9798798798798799}</t>
+    <t>{44.0: 0.9800980246546859}</t>
   </si>
   <si>
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 1.0, 246.0: 0.02088363653031124, 681.0: 0.00913115225914661, 741.0: 0.008188046150876902, 789.0: 0.0030806647750304013, 90.0: 0.005317945236478841}</t>
+    <t>{46.0: 1.0, 246.0: 0.020864373686406357, 681.0: 0.00913599106149541, 741.0: 0.00819605054545509, 789.0: 0.0030869212022745737, 90.0: 0.005340909090909091}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
   </si>
   <si>
-    <t>{48.0: 1.0, 443.0: 0.03765690376569038, 291.0: 0.0025782349920288987}</t>
-  </si>
-  <si>
-    <t>{49.0: 0.8933886722844087}</t>
+    <t>{48.0: 1.0, 443.0: 0.03748355984217448, 291.0: 0.002574966691196572}</t>
+  </si>
+  <si>
+    <t>{49.0: 0.8868973492261164}</t>
   </si>
   <si>
     <t>{50.0: 1.0}</t>
@@ -124,7 +124,7 @@
     <t>{60.0: 1.0}</t>
   </si>
   <si>
-    <t>{61.0: 0.9013317191283293}</t>
+    <t>{61.0: 0.900012268433321}</t>
   </si>
   <si>
     <t>{62.0: 1.0}</t>
@@ -139,34 +139,34 @@
     <t>{70.0: 1.0}</t>
   </si>
   <si>
-    <t>{71.0: 0.9823489268718721}</t>
+    <t>{71.0: 0.9826600348172096}</t>
   </si>
   <si>
     <t>{72.0: 1.0}</t>
   </si>
   <si>
-    <t>{73.0: 0.8429468776573892, 888.0: 0.006491762867531044}</t>
+    <t>{73.0: 0.8429428942637804, 888.0: 0.0064918045262522235}</t>
   </si>
   <si>
     <t>{74.0: 1.0}</t>
   </si>
   <si>
-    <t>{75.0: 1.0, 917.0: 0.13643574699810795}</t>
+    <t>{75.0: 1.0, 917.0: 0.13677505342411111}</t>
   </si>
   <si>
     <t>{76.0: 1.0}</t>
   </si>
   <si>
-    <t>{77.0: 1.0, 85.0: 0.0009282896263634254}</t>
+    <t>{77.0: 1.0, 85.0: 0.0009250693802035153}</t>
   </si>
   <si>
     <t>{78.0: 1.0}</t>
   </si>
   <si>
-    <t>{79.0: 0.9993480032599837}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.7809903028418587, 172.0: 0.0016461579677927844}</t>
+    <t>{79.0: 0.9993761696818465}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.7790212317198133, 172.0: 0.0016363927947164638}</t>
   </si>
   <si>
     <t>{82.0: 0.9989678560896491}</t>
@@ -178,10 +178,10 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.994052232029912, 178.0: 0.008741636293170308, 14.0: 0.00027033054943072243, 492.0: 0.00261449808873439, 97.0: 1.3291445142580957e-05, 696.0: 3.4539568464333804e-06}</t>
-  </si>
-  <si>
-    <t>{86.0: 0.8967637375132628, 694.0: 0.006483790523690773}</t>
+    <t>{85.0: 0.9940170594048064, 178.0: 0.008787936260567477, 14.0: 0.00027132074902629517, 492.0: 0.002614263529252245, 97.0: 1.3250883392226149e-05, 696.0: 3.3556181386114524e-06}</t>
+  </si>
+  <si>
+    <t>{86.0: 0.8967465145821124, 694.0: 0.006483790523690773}</t>
   </si>
   <si>
     <t>{88.0: 0.9985242575170633, 89.0: 0.2946247464503043}</t>
@@ -190,13 +190,13 @@
     <t>{89.0: 0.7053752535496958, 88.0: 0.0014757424829367274}</t>
   </si>
   <si>
-    <t>{90.0: 0.9946820547635211}</t>
-  </si>
-  <si>
-    <t>{91.0: 0.9615284042749032, 104.0: 0.9985395398226237, 92.0: 0.040265849431765505, 294.0: 1.0, 566.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.9597341505682345, 91.0: 0.03813849167117715, 104.0: 0.0014478148686360955}</t>
+    <t>{90.0: 0.9946590909090909}</t>
+  </si>
+  <si>
+    <t>{91.0: 0.9615324172454731, 104.0: 0.9986274477514816, 92.0: 0.0395714828352435, 294.0: 1.0, 566.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.9604285171647565, 91.0: 0.038138650843432466, 104.0: 0.0013608157108454778}</t>
   </si>
   <si>
     <t>{94.0: 1.0}</t>
@@ -208,10 +208,10 @@
     <t>{96.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9951227788408464}</t>
-  </si>
-  <si>
-    <t>{98.0: 0.4111959803251983}</t>
+    <t>{97.0: 0.9951567948489588}</t>
+  </si>
+  <si>
+    <t>{98.0: 0.41510667628725817}</t>
   </si>
   <si>
     <t>{99.0: 1.0}</t>
@@ -232,16 +232,16 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: -0.008041738771458164, 543.0: -6.48467367384621e-05, 86.0: -1.7825636407842836e-05}</t>
-  </si>
-  <si>
-    <t>{107.0: -0.005397783378865379, 543.0: -4.352648695613634e-05, 86.0: -1.1964940251659625e-05, 505.0: 0.009305654974946313}</t>
+    <t>{107.0: 0.39533413779233467, 543.0: 0.003096384867062236, 86.0: 0.0008838891141578506}</t>
+  </si>
+  <si>
+    <t>{107.0: 0.6046658622076654, 543.0: 0.004735938656409289, 86.0: 0.0013519135389946312, 505.0: 0.009305654974946313}</t>
   </si>
   <si>
     <t>{108.0: 0.9995243983639304}</t>
   </si>
   <si>
-    <t>{109.0: 1.0, 110.0: 0.8367273519846401}</t>
+    <t>{109.0: 1.0, 110.0: 0.8366630142044656}</t>
   </si>
   <si>
     <t>{139.0: 0.6493268053855569}</t>
@@ -253,13 +253,13 @@
     <t>{141.0: 0.9640418752844788}</t>
   </si>
   <si>
-    <t>{142.0: 0.9325995807127883, 44.0: 0.02012012012012012}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.04832944130170801}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9506590101861113}</t>
+    <t>{142.0: 0.9325995807127883, 44.0: 0.019901975345314123}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.04467886430582105}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9543139172956562}</t>
   </si>
   <si>
     <t>{145.0: 0.9987436257482817}</t>
@@ -280,10 +280,10 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9995648863265528, 975.0: 0.0008214690645289342}</t>
-  </si>
-  <si>
-    <t>{185.0: 0.9751506024096386, 700.0: 0.6933559187147691, 173.0: 0.07662878361651851, 404.0: 0.00015302591742855296}</t>
+    <t>{152.0: 0.9995732878173672, 975.0: 0.0008214403552842996}</t>
+  </si>
+  <si>
+    <t>{185.0: 0.9751506024096386, 700.0: 0.6933559187147691, 173.0: 0.07662878361651851, 404.0: 0.0001543025857522946}</t>
   </si>
   <si>
     <t>{163.0: 1.0}</t>
@@ -292,10 +292,10 @@
     <t>{164.0: 1.0}</t>
   </si>
   <si>
-    <t>{165.0: 1.0, 914.0: 0.044090464810719994, 110.0: 0.002611402393722663}</t>
-  </si>
-  <si>
-    <t>{166.0: 1.0, 893.0: 0.002105263157894737}</t>
+    <t>{165.0: 1.0, 914.0: 0.044090464810719994, 110.0: 0.0026124314199263577}</t>
+  </si>
+  <si>
+    <t>{166.0: 1.0, 893.0: 0.002254791431792559}</t>
   </si>
   <si>
     <t>{167.0: 1.0}</t>
@@ -307,16 +307,16 @@
     <t>{170.0: 1.0}</t>
   </si>
   <si>
-    <t>{171.0: 0.7161445274155449}</t>
-  </si>
-  <si>
-    <t>{172.0: 0.9411677681411907, 81.0: 0.003681063393975768}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.9233712163834815, 404.0: 0.001843951069630992, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307, 420.0: 0.004820511450036743, 212.0: 4.511520929137317e-06, 681.0: 2.8960228495585646e-08}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.9934177215189873, 502.0: 0.18332608979971413}</t>
+    <t>{171.0: 0.7191593884581571}</t>
+  </si>
+  <si>
+    <t>{172.0: 0.9404908672461181, 81.0: 0.0036717947657656834}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.9233712163834815, 404.0: 0.0018593348291972536, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307, 420.0: 0.0048126323873231005, 212.0: 4.4933219741992875e-06, 681.0: 2.8883578149984707e-08}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.9934541792547835, 502.0: 0.1848855643972143}</t>
   </si>
   <si>
     <t>{175.0: 1.0, 399.0: 0.014406358668653751}</t>
@@ -328,40 +328,40 @@
     <t>{177.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 0.9759748680013169, 14.0: 0.030181514472696975, 681.0: 0.010227277857796856}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.4138999238272808, 410.0: 0.014187329728803962, 850.0: 0.0011018966358130604, 277.0: 4.38094565749719e-05}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.5861000761727191, 410.0: 0.020089868482820475, 850.0: 0.001560332981491432, 277.0: 6.203607287057942e-05}</t>
+    <t>{178.0: 0.9759282428739054, 14.0: 0.030131031222951257, 681.0: 0.010311688422776206}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.4137337614901977, 410.0: 0.014060740473467732, 850.0: 0.0011036579166127315, 277.0: 4.408673998884865e-05}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.5862662385098023, 410.0: 0.019924256116666386, 850.0: 0.0015638979353379187, 277.0: 6.247149647233791e-05}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.6468848045152845, 277.0: 0.0023339836856795435}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.16269738981458448}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.9917785638508975, 171.0: 0.0036495214120508754, 593.0: 0.0009448311481210115, 778.0: 0.0005930931548929425}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.45766386834936346, 543.0: 0.008551848964568199}</t>
-  </si>
-  <si>
-    <t>{311.0: 1.181315320072715}</t>
-  </si>
-  <si>
-    <t>{202.0: 0.2750805601777768, 307.0: 0.9844963966062609}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.7663743002352303}</t>
-  </si>
-  <si>
-    <t>{204.0: 0.997521422253054, 857.0: 0.004858248839482561}</t>
+    <t>{182.0: 0.6458285932967373, 277.0: 0.0023355325289895535}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.16318645920505354}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9917621971834255, 171.0: 0.0036220285020085534, 593.0: 0.000944548826804739, 778.0: 0.0005775144643994738}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.3251826980051353, 543.0: 0.006078068845796023}</t>
+  </si>
+  <si>
+    <t>{311.0: 0.7358031956941439}</t>
+  </si>
+  <si>
+    <t>{202.0: 0.2751012314568136, 307.0: 0.9844963966062609}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.7759206783389275}</t>
+  </si>
+  <si>
+    <t>{204.0: 0.9975053289464635, 857.0: 0.004856450905275958}</t>
   </si>
   <si>
     <t>{205.0: 1.0}</t>
@@ -370,22 +370,22 @@
     <t>{206.0: 1.0}</t>
   </si>
   <si>
-    <t>{207.0: 0.5561023622047244, 477.0: 0.043134285620362055}</t>
+    <t>{207.0: 0.5561023622047244, 477.0: 0.043143765683135764}</t>
   </si>
   <si>
     <t>{208.0: 0.9887673231218089, 688.0: 0.00763807285546416}</t>
   </si>
   <si>
-    <t>{209.0: 0.9188472487770896}</t>
-  </si>
-  <si>
-    <t>{210.0: 1.0, 82.0: 0.0010321439103509289, 788.0: -0.0002023300897359477}</t>
-  </si>
-  <si>
-    <t>{211.0: 0.970627863109674}</t>
-  </si>
-  <si>
-    <t>{212.0: 0.9991899554475496, 681.0: 0.008357040088911935}</t>
+    <t>{209.0: 0.9187771232698736}</t>
+  </si>
+  <si>
+    <t>{210.0: 1.0, 82.0: 0.0010321439103509289, 788.0: -0.00017673394070562247}</t>
+  </si>
+  <si>
+    <t>{211.0: 0.9704727075714479}</t>
+  </si>
+  <si>
+    <t>{212.0: 0.9991932230738201, 681.0: 0.008365967005621318}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -394,31 +394,31 @@
     <t>{214.0: 1.0}</t>
   </si>
   <si>
-    <t>{265.0: 0.2727846961866583}</t>
-  </si>
-  <si>
-    <t>{217.0: 0.9946335737045111}</t>
-  </si>
-  <si>
-    <t>{218.0: 1.0, 409.0: 0.12090597299870061}</t>
+    <t>{265.0: 0.20300968880857473}</t>
+  </si>
+  <si>
+    <t>{217.0: 0.9945955075156223}</t>
+  </si>
+  <si>
+    <t>{218.0: 1.0, 409.0: 0.12102073873692254}</t>
   </si>
   <si>
     <t>{219.0: 1.0}</t>
   </si>
   <si>
-    <t>{221.0: 0.40864799025578563, 999.0: 0.40864799025578563}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.5913520097442144, 999.0: 0.5913520097442144}</t>
-  </si>
-  <si>
-    <t>{222.0: 1.0, 490.0: 0.002387696028954705, 503.0: 0.048680958673208055}</t>
-  </si>
-  <si>
-    <t>{223.0: 0.9808052434456929}</t>
-  </si>
-  <si>
-    <t>{627.0: 0.7847902097902097}</t>
+    <t>{221.0: 0.29241719930273097, 999.0: 0.29241719930273097}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.707582800697269, 999.0: 0.707582800697269}</t>
+  </si>
+  <si>
+    <t>{222.0: 1.0, 490.0: 0.0023962824030009516, 503.0: 0.048910714816067735}</t>
+  </si>
+  <si>
+    <t>{223.0: 0.9809390980939098}</t>
+  </si>
+  <si>
+    <t>{627.0: 0.567653009610521}</t>
   </si>
   <si>
     <t>{225.0: 1.0}</t>
@@ -427,10 +427,10 @@
     <t>{226.0: 0.7391327351334501}</t>
   </si>
   <si>
-    <t>{227.0: 0.6609982656151687, 297.0: 4.127455836222553e-05, 686.0: 0.00010807624995586887}</t>
-  </si>
-  <si>
-    <t>{228.0: 1.0, 738.0: 0.003872216844143272}</t>
+    <t>{227.0: 0.6206265284284248, 297.0: 4.15092773234818e-05, 686.0: 0.00010826368595086506}</t>
+  </si>
+  <si>
+    <t>{228.0: 1.0, 738.0: 0.003875968992248062}</t>
   </si>
   <si>
     <t>{229.0: 1.0}</t>
@@ -448,7 +448,7 @@
     <t>{233.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.10661132771559133}</t>
+    <t>{49.0: 0.11310265077388365}</t>
   </si>
   <si>
     <t>{236.0: 1.0}</t>
@@ -457,16 +457,19 @@
     <t>{237.0: 1.0}</t>
   </si>
   <si>
-    <t>{238.0: 1.0, 253.0: 0.002564069085859641}</t>
+    <t>{238.0: 1.0, 253.0: 0.0025205205174975535}</t>
   </si>
   <si>
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.8195167255485202}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.18048327445147982}</t>
+    <t>{240.0: 1.0, 241.0: 0.8103169425483226}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.1896830574516774}</t>
+  </si>
+  <si>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -475,10 +478,10 @@
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{858.0: 0.4717851781842442, 543.0: 0.008815717968091075}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.8937577127249445}</t>
+    <t>{858.0: 0.3352162749358088, 543.0: 0.006265608870921411}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.8938584493259513}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -487,19 +490,19 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.8994204239565864}</t>
-  </si>
-  <si>
-    <t>{250.0: 1.0, 581.0: 0.009343583678296866, 303.0: 0.0008056245482620409}</t>
-  </si>
-  <si>
-    <t>{251.0: 0.4466893330379997}</t>
+    <t>{249.0: 0.8985808107367719}</t>
+  </si>
+  <si>
+    <t>{250.0: 1.0, 581.0: 0.009343583678296866, 303.0: 0.0008070593203871737}</t>
+  </si>
+  <si>
+    <t>{251.0: 0.46403865886525403}</t>
   </si>
   <si>
     <t>{252.0: 1.0}</t>
   </si>
   <si>
-    <t>{253.0: 0.9957911940720351}</t>
+    <t>{253.0: 0.9958347426403972}</t>
   </si>
   <si>
     <t>{254.0: 1.0}</t>
@@ -523,28 +526,28 @@
     <t>{261.0: 1.0}</t>
   </si>
   <si>
-    <t>{262.0: 0.9778834229020257, 79.0: 0.0006519967400162999}</t>
-  </si>
-  <si>
-    <t>{263.0: 1.0, 595.0: 0.0017152658662092624}</t>
-  </si>
-  <si>
-    <t>{265.0: 0.5219532671708194}</t>
-  </si>
-  <si>
-    <t>{400.0: 0.06571137480117686}</t>
-  </si>
-  <si>
-    <t>{61.0: 0.09785552732248066, 887.0: 0.1816527991938137}</t>
-  </si>
-  <si>
-    <t>{270.0: 1.0, 479.0: 0.02117183653372723, 942.0: 0.00019483285153736716}</t>
+    <t>{262.0: 0.9778834229020257, 79.0: 0.0006238303181534623}</t>
+  </si>
+  <si>
+    <t>{263.0: 1.0, 595.0: 0.0017327861377108983}</t>
+  </si>
+  <si>
+    <t>{265.0: 0.5917282745489029}</t>
+  </si>
+  <si>
+    <t>{400.0: 0.06158198808299092}</t>
+  </si>
+  <si>
+    <t>{61.0: 0.09913371951025017, 887.0: 0.18279766171966416}</t>
+  </si>
+  <si>
+    <t>{270.0: 1.0, 479.0: 0.020544672718585764, 942.0: 0.00018927913445146194}</t>
   </si>
   <si>
     <t>{271.0: 1.0}</t>
   </si>
   <si>
-    <t>{272.0: 1.0, 203.0: 0.14952367803396382}</t>
+    <t>{272.0: 1.0, 203.0: 0.1488455195162177}</t>
   </si>
   <si>
     <t>{273.0: 1.0}</t>
@@ -553,13 +556,13 @@
     <t>{274.0: 1.0}</t>
   </si>
   <si>
-    <t>{275.0: 0.9949076580731943, 921.0: 0.009641342074816815, 686.0: 0.0010047459875561287}</t>
+    <t>{275.0: 0.994931634299257, 921.0: 0.009641342074816815, 686.0: 0.0010011859717920977}</t>
   </si>
   <si>
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9184602297788417}</t>
+    <t>{277.0: 0.9182483933057883}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -568,10 +571,10 @@
     <t>{280.0: 1.0}</t>
   </si>
   <si>
-    <t>{281.0: 1.0, 599.0: 0.005053750609359766, 621.0: 0.04563312178906014}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.19041780567013103, 277.0: 0.003326032906596944}</t>
+    <t>{281.0: 1.0, 599.0: 0.005052641409470727, 621.0: 0.04563312178906014}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.19098494749820913, 277.0: 0.0033252657802072005}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -583,22 +586,22 @@
     <t>{285.0: 1.0, 311.0: 0.002875413072400326}</t>
   </si>
   <si>
-    <t>{286.0: 1.0, 909.0: 0.05471677235106734}</t>
+    <t>{286.0: 1.0, 909.0: 0.055654435197145524}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
   </si>
   <si>
-    <t>{288.0: 0.9978448275862069}</t>
-  </si>
-  <si>
-    <t>{289.0: 1.0, 730.0: 0.046404895461499236}</t>
+    <t>{288.0: 0.9978511952726296}</t>
+  </si>
+  <si>
+    <t>{289.0: 1.0, 730.0: 0.047420531526836895}</t>
   </si>
   <si>
     <t>{290.0: 1.0}</t>
   </si>
   <si>
-    <t>{291.0: 0.9315335374338992}</t>
+    <t>{291.0: 0.9313041049986037}</t>
   </si>
   <si>
     <t>{292.0: 1.0}</t>
@@ -610,10 +613,10 @@
     <t>{295.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9942090158563912, 298.0: 0.08537188859276383}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.5895840818193531, 297.0: 0.004759120184553127}</t>
+    <t>{297.0: 0.9941760838557405, 298.0: 0.08487354636370946}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.5861424964170392, 297.0: 0.004786184211172354}</t>
   </si>
   <si>
     <t>{299.0: 1.0}</t>
@@ -625,13 +628,13 @@
     <t>{301.0: 0.9865262782189703}</t>
   </si>
   <si>
-    <t>{303.0: 0.9137777777777778, 144.0: 0.00101154851218073}</t>
+    <t>{303.0: 0.9136242208370436, 144.0: 0.0010072183985227463}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
   </si>
   <si>
-    <t>{305.0: 0.7922672313682628}</t>
+    <t>{305.0: 0.7921536463673023}</t>
   </si>
   <si>
     <t>{306.0: 1.0, 142.0: 0.06740041928721174}</t>
@@ -640,25 +643,25 @@
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 204.0: 0.0024785777469459903, 426.0: 0.03955197759887994, 857.0: 5.0486552666831835e-06}</t>
+    <t>{309.0: 1.0, 204.0: 0.002494671053536544, 426.0: 0.039725786605730354, 857.0: 5.050535780260245e-06}</t>
   </si>
   <si>
     <t>{310.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: -0.18419073314511528}</t>
-  </si>
-  <si>
-    <t>{226.0: 0.2608672648665498, 5.0: 0.01582715129859224, 759.0: 0.003654342218400688}</t>
-  </si>
-  <si>
-    <t>{315.0: 1.0, 217.0: 0.005366426295488848}</t>
+    <t>{311.0: 0.26132139123345577}</t>
+  </si>
+  <si>
+    <t>{226.0: 0.2608672648665498, 5.0: 0.01582787211535657, 759.0: 0.003654342218400688}</t>
+  </si>
+  <si>
+    <t>{315.0: 1.0, 217.0: 0.005404492484377639}</t>
   </si>
   <si>
     <t>{316.0: 1.0}</t>
   </si>
   <si>
-    <t>{317.0: 1.0, 71.0: 0.009075383344384338}</t>
+    <t>{317.0: 1.0, 71.0: 0.008760009947774185}</t>
   </si>
   <si>
     <t>{318.0: 1.0}</t>
@@ -667,31 +670,28 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{398.0: 1.0, 98.0: 0.5888040196748017}</t>
+    <t>{398.0: 1.0, 98.0: 0.5848933237127418}</t>
   </si>
   <si>
     <t>{399.0: 0.9855936413313463}</t>
   </si>
   <si>
-    <t>{400.0: 0.9333777862149146}</t>
+    <t>{400.0: 0.9375071729331006}</t>
   </si>
   <si>
     <t>{401.0: 0.9842657342657343}</t>
   </si>
   <si>
-    <t>{402.0: 0.9983058636451748, 476.0: 0.014908595742082748, 141.0: 0.0015162157654260925}</t>
-  </si>
-  <si>
-    <t>{403.0: 0.8801185344827587}</t>
-  </si>
-  <si>
-    <t>{404.0: 0.24571753336152957, 907.0: 0.3609253569492138, 930.0: 0.0042686210818848646}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.3096939584397832}</t>
+    <t>{402.0: 0.9983019057254231, 476.0: 0.01488053984211376, 141.0: 0.0015162157654260925}</t>
+  </si>
+  <si>
+    <t>{403.0: 0.8776632302405498}</t>
+  </si>
+  <si>
+    <t>{404.0: 0.35005776247073445, 907.0: 0.5163452332102312, 930.0: 0.006287685559143693}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.31245635026236357}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -700,16 +700,16 @@
     <t>{407.0: 1.0}</t>
   </si>
   <si>
-    <t>{408.0: 1.0, 403.0: 0.11988146551724138}</t>
-  </si>
-  <si>
-    <t>{409.0: 0.8790940270012993}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.9657228017883756}</t>
-  </si>
-  <si>
-    <t>{404.0: 0.4350812208144059, 907.0: 0.6390746430507862, 930.0: 0.00755825946196539}</t>
+    <t>{408.0: 1.0, 403.0: 0.12233676975945017}</t>
+  </si>
+  <si>
+    <t>{409.0: 0.8789792612630773}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.9660150034098659}</t>
+  </si>
+  <si>
+    <t>{404.0: 0.32789516505867994, 907.0: 0.4836547667897688, 930.0: 0.005889604274736979}</t>
   </si>
   <si>
     <t>{413.0: 1.0}</t>
@@ -718,7 +718,7 @@
     <t>{414.0: 1.0, 759.0: 0.0021496130696474634}</t>
   </si>
   <si>
-    <t>{415.0: 1.0, 277.0: 0.036121526630896655}</t>
+    <t>{415.0: 1.0, 277.0: 0.03614478949162754}</t>
   </si>
   <si>
     <t>{416.0: 1.0}</t>
@@ -727,46 +727,46 @@
     <t>{417.0: 1.0}</t>
   </si>
   <si>
-    <t>{418.0: 0.8796827421550545}</t>
-  </si>
-  <si>
-    <t>{419.0: 1.0, 17.0: 0.01098901098901099}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.8593766787553003, 212.0: 0.0008042913936419551, 681.0: 5.162884735050531e-06}</t>
+    <t>{418.0: 0.879367457019463}</t>
+  </si>
+  <si>
+    <t>{419.0: 1.0, 17.0: 0.010924369747899159}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.8579720388500257, 212.0: 0.0008010469749503779, 681.0: 5.1492198946885236e-06}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.14895191648718398}</t>
-  </si>
-  <si>
-    <t>{423.0: 0.9963219385547382}</t>
-  </si>
-  <si>
-    <t>{424.0: 1.0, 585.0: 0.012401653553807174, 434.0: 0.0002397507716904726}</t>
+    <t>{597.0: 0.13743568393910327}</t>
+  </si>
+  <si>
+    <t>{423.0: 0.9963346269943941}</t>
+  </si>
+  <si>
+    <t>{424.0: 1.0, 585.0: 0.012528627239660514, 434.0: 0.00021743081720157614}</t>
   </si>
   <si>
     <t>{425.0: 1.0}</t>
   </si>
   <si>
-    <t>{426.0: 0.96044802240112}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.2659809045191806, 755.0: 0.13485851896447923}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.7293886394220543}</t>
+    <t>{426.0: 0.9602742133942697}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.21107298089609178, 755.0: 0.13485851896447923}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.7842965630451432}</t>
   </si>
   <si>
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.29759273185332574, 783.0: 0.0003181673560292714}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.7024072681466742}</t>
+    <t>{431.0: 0.2217269368149083, 783.0: 0.0003204101249599487}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.7782730631850917}</t>
   </si>
   <si>
     <t>{432.0: 0.9940968122786304}</t>
@@ -775,7 +775,7 @@
     <t>{433.0: 1.0}</t>
   </si>
   <si>
-    <t>{434.0: 0.9806678383128296}</t>
+    <t>{434.0: 0.9826452800420721}</t>
   </si>
   <si>
     <t>{435.0: 1.0}</t>
@@ -793,34 +793,34 @@
     <t>{440.0: 1.0}</t>
   </si>
   <si>
-    <t>{441.0: 1.0, 782.0: 0.006545006545006545}</t>
+    <t>{441.0: 1.0, 782.0: 0.0066929133858267716}</t>
   </si>
   <si>
     <t>{442.0: 0.9978991596638656}</t>
   </si>
   <si>
-    <t>{443.0: 0.9623430962343096, 291.0: 0.06588822757407185}</t>
+    <t>{443.0: 0.9625164401578256, 291.0: 0.0661209283101997}</t>
   </si>
   <si>
     <t>{475.0: 0.9825250343608875}</t>
   </si>
   <si>
-    <t>{476.0: 0.826947033667272}</t>
-  </si>
-  <si>
-    <t>{477.0: 0.08288882327934162}</t>
+    <t>{476.0: 0.8253941069561146}</t>
+  </si>
+  <si>
+    <t>{477.0: 0.0828872914271976}</t>
   </si>
   <si>
     <t>{478.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728, 942.0: 0.009007621136192695}</t>
+    <t>{479.0: 0.9794553272814143, 942.0: 0.009023772688965046}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
   </si>
   <si>
-    <t>{481.0: 0.9938574938574939}</t>
+    <t>{481.0: 0.9938423645320197}</t>
   </si>
   <si>
     <t>{482.0: 1.0}</t>
@@ -838,25 +838,25 @@
     <t>{487.0: 1.0}</t>
   </si>
   <si>
-    <t>{489.0: 0.9861400416599904, 935.0: 0.005134841466606503}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9503030195239726, 503.0: 0.007690879292109704}</t>
-  </si>
-  <si>
-    <t>{491.0: 1.0, 492.0: 0.2332358287409201}</t>
-  </si>
-  <si>
-    <t>{492.0: 0.7572537191552514, 97.0: 0.004860304774426683, 696.0: 0.0010003915011578862, 85.0: 0.0014232697124584544, 178.0: 0.015121184392414243, 14.0: 0.0004676147517185394}</t>
-  </si>
-  <si>
-    <t>{493.0: 0.9920582395764395}</t>
+    <t>{489.0: 0.9861400416599904, 935.0: 0.005083835245575205}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9501259727898774, 503.0: 0.007727197983891121}</t>
+  </si>
+  <si>
+    <t>{491.0: 1.0, 492.0: 0.233340311686442}</t>
+  </si>
+  <si>
+    <t>{492.0: 0.7571857821997865, 97.0: 0.004826340390360104, 696.0: 0.0009719090354196443, 85.0: 0.0014232193527988638, 178.0: 0.015120528899491788, 14.0: 0.00046683465890533634}</t>
+  </si>
+  <si>
+    <t>{493.0: 0.9920826918847592}</t>
   </si>
   <si>
     <t>{494.0: 1.0}</t>
   </si>
   <si>
-    <t>{495.0: 0.9301775147928995}</t>
+    <t>{495.0: 0.9292226487523992}</t>
   </si>
   <si>
     <t>{496.0: 1.0}</t>
@@ -865,19 +865,19 @@
     <t>{498.0: 1.0}</t>
   </si>
   <si>
-    <t>{499.0: 0.9598576230966976}</t>
-  </si>
-  <si>
-    <t>{500.0: 0.7436360779384036}</t>
+    <t>{499.0: 0.9608410493827161}</t>
+  </si>
+  <si>
+    <t>{500.0: 0.7417002759348164}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{502.0: 0.8154592113382082, 534.0: 0.00040881679869270057, 298.0: 0.0002447193894794796, 857.0: 0.00017716181648910772}</t>
-  </si>
-  <si>
-    <t>{503.0: 0.9436281620346821}</t>
+    <t>{502.0: 0.8138962337086327, 534.0: 0.00040901744358735914, 298.0: 0.00024769904973694047, 857.0: 0.0001772847706253548}</t>
+  </si>
+  <si>
+    <t>{503.0: 0.9433620872000411}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -889,13 +889,13 @@
     <t>{506.0: 1.0}</t>
   </si>
   <si>
-    <t>{507.0: 0.7987576959287707}</t>
-  </si>
-  <si>
-    <t>{529.0: 1.0, 530.0: 0.01221001221001221}</t>
-  </si>
-  <si>
-    <t>{530.0: 0.9877899877899878}</t>
+    <t>{507.0: 0.7976368788574122}</t>
+  </si>
+  <si>
+    <t>{529.0: 1.0, 530.0: 0.012586532410320957}</t>
+  </si>
+  <si>
+    <t>{530.0: 0.9874134675896791}</t>
   </si>
   <si>
     <t>{531.0: 1.0, 262.0: 0.02211657709797437, 442.0: 0.0021008403361344537}</t>
@@ -907,16 +907,16 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.8952065849373411, 402.0: 0.0006615052106698433, 476.0: 9.87884988589353e-06, 141.0: 1.0046867056022953e-06}</t>
-  </si>
-  <si>
-    <t>{535.0: 1.0, 71.0: 0.008575689783743476}</t>
-  </si>
-  <si>
-    <t>{536.0: 0.5244740231859167}</t>
-  </si>
-  <si>
-    <t>{537.0: 1.0, 608.0: 0.027455765710799267}</t>
+    <t>{534.0: 0.8956459470954198, 402.0: 0.0006615025880422153, 476.0: 9.860259266830399e-06, 141.0: 1.0046867056022953e-06}</t>
+  </si>
+  <si>
+    <t>{535.0: 1.0, 71.0: 0.008579955235016165}</t>
+  </si>
+  <si>
+    <t>{536.0: 0.5216757544674189}</t>
+  </si>
+  <si>
+    <t>{537.0: 1.0, 608.0: 0.026122291021671826}</t>
   </si>
   <si>
     <t>{538.0: 1.0}</t>
@@ -928,16 +928,16 @@
     <t>{540.0: 1.0, 428.0: 0.0009161950239545003}</t>
   </si>
   <si>
-    <t>{542.0: 0.10538281020827223, 911.0: 0.01249604555520405}</t>
-  </si>
-  <si>
-    <t>{542.0: 0.8946171897917278}</t>
-  </si>
-  <si>
-    <t>{543.0: 0.9732503562965729}</t>
-  </si>
-  <si>
-    <t>{544.0: 1.0, 975.0: 0.0007079704314882281}</t>
+    <t>{542.0: 0.09915131442765474, 911.0: 0.012482224680044242}</t>
+  </si>
+  <si>
+    <t>{542.0: 0.9008486855723453}</t>
+  </si>
+  <si>
+    <t>{543.0: 0.9734764334212167}</t>
+  </si>
+  <si>
+    <t>{544.0: 1.0, 975.0: 0.000707939738530667}</t>
   </si>
   <si>
     <t>{545.0: 1.0}</t>
@@ -952,7 +952,7 @@
     <t>{561.0: 0.9775441949354993, 979.0: 0.001452643811737362}</t>
   </si>
   <si>
-    <t>{562.0: 1.0, 211.0: 0.029372136890326056}</t>
+    <t>{562.0: 1.0, 211.0: 0.02952729242855208}</t>
   </si>
   <si>
     <t>{563.0: 0.9855681658960348}</t>
@@ -967,7 +967,7 @@
     <t>{567.0: 1.0}</t>
   </si>
   <si>
-    <t>{573.0: 0.2315051020408163}</t>
+    <t>{573.0: 0.4529689486108589}</t>
   </si>
   <si>
     <t>{574.0: 1.0}</t>
@@ -985,25 +985,25 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{573.0: 0.7684948979591837}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.6972881735189558, 752.0: 0.04612635356536104}</t>
-  </si>
-  <si>
-    <t>{581.0: 0.9906564163217031, 303.0: 0.08541659767396019}</t>
+    <t>{573.0: 0.5470310513891411}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.6965028963195642, 752.0: 0.046284020554380495}</t>
+  </si>
+  <si>
+    <t>{581.0: 0.9906564163217031, 303.0: 0.0855687198425692}</t>
   </si>
   <si>
     <t>{582.0: 1.0}</t>
   </si>
   <si>
-    <t>{583.0: 0.4522030262777632, 742.0: 0.4522030262777632, 758.0: 0.0008773141218004999}</t>
+    <t>{583.0: 0.5730553232783095, 742.0: 0.5730553232783095, 758.0: 0.001111778335106056}</t>
   </si>
   <si>
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 0.9875983464461928, 434.0: 0.01909241091548}</t>
+    <t>{585.0: 0.9874713727603395, 434.0: 0.01713728914072638}</t>
   </si>
   <si>
     <t>{586.0: 1.0}</t>
@@ -1012,7 +1012,7 @@
     <t>{587.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.21493016932394018, 172.0: 0.05718523401450231, 507.0: 0.20124230407122928}</t>
+    <t>{81.0: 0.21691405762754148, 172.0: 0.057871914609739825, 507.0: 0.2023631211425878}</t>
   </si>
   <si>
     <t>{589.0: 1.0}</t>
@@ -1024,25 +1024,25 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.32222566945663483, 686.0: 0.0027602621552418683, 171.0: 0.001344575637659295}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.6745488866890498, 686.0: 0.005778347103531732, 171.0: 0.0028147416094494553}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9982847341337907, 402.0: 0.0010326311441553077, 476.0: 1.5421205904453837e-05}</t>
+    <t>{593.0: 0.4952232063620879, 686.0: 0.004199608295258517, 171.0: 0.0020751461355047337}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.5015556694602002, 686.0: 0.004253309059307135, 171.0: 0.0021016812133392445}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9982672138622891, 402.0: 0.001036591686534674, 476.0: 1.545128162434429e-05}</t>
   </si>
   <si>
     <t>{596.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.8484385079682668}</t>
-  </si>
-  <si>
-    <t>{598.0: 1.0, 599.0: 0.017882490564377636}</t>
-  </si>
-  <si>
-    <t>{599.0: 0.9770637588262626}</t>
+    <t>{597.0: 0.859921524409961}</t>
+  </si>
+  <si>
+    <t>{598.0: 1.0, 599.0: 0.018098046241080627}</t>
+  </si>
+  <si>
+    <t>{599.0: 0.9768493123494487}</t>
   </si>
   <si>
     <t>{600.0: 1.0}</t>
@@ -1057,19 +1057,19 @@
     <t>{603.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.0011317469689680157}</t>
+    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.0011333229466893692}</t>
   </si>
   <si>
     <t>{605.0: 1.0, 475.0: 0.017474965639112508}</t>
   </si>
   <si>
-    <t>{606.0: 0.9985494106980961}</t>
+    <t>{606.0: 0.9985660512636674}</t>
   </si>
   <si>
     <t>{607.0: 1.0}</t>
   </si>
   <si>
-    <t>{608.0: 0.9725442342892008}</t>
+    <t>{608.0: 0.9738777089783281}</t>
   </si>
   <si>
     <t>{609.0: 1.0, 886.0: 0.5979012446107541, 610.0: 0.46334982591167306}</t>
@@ -1081,16 +1081,16 @@
     <t>{611.0: 1.0}</t>
   </si>
   <si>
-    <t>{612.0: 1.0, 613.0: 0.014371407148212946}</t>
-  </si>
-  <si>
-    <t>{613.0: 0.985628592851787}</t>
-  </si>
-  <si>
-    <t>{305.0: 0.20773276863173715, 615.0: 0.006883365200764819, 698.0: 0.0026191723415400735, 832.0: 0.1194793119479312}</t>
-  </si>
-  <si>
-    <t>{615.0: 0.9804817960786402}</t>
+    <t>{612.0: 1.0, 613.0: 0.013974117504101099}</t>
+  </si>
+  <si>
+    <t>{613.0: 0.986025882495899}</t>
+  </si>
+  <si>
+    <t>{305.0: 0.20784635363269768, 615.0: 0.006551410373066424, 698.0: 0.0026393929396238865, 832.0: 0.12134088762983947}</t>
+  </si>
+  <si>
+    <t>{615.0: 0.9809807917578434}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1099,10 +1099,10 @@
     <t>{617.0: 1.0}</t>
   </si>
   <si>
-    <t>{618.0: 1.0, 246.0: 0.0011568986971073226, 789.0: 0.004038844209271378}</t>
-  </si>
-  <si>
-    <t>{619.0: 1.0, 887.0: 0.008799155487749743, 861.0: 0.015839714675338297, 253.0: 2.6052162294964303e-05}</t>
+    <t>{618.0: 1.0, 246.0: 0.001161647976018271, 789.0: 0.004038497551265335}</t>
+  </si>
+  <si>
+    <t>{619.0: 1.0, 887.0: 0.008659293192683624, 861.0: 0.015856347789562113, 253.0: 2.607951939072716e-05}</t>
   </si>
   <si>
     <t>{620.0: 1.0}</t>
@@ -1114,7 +1114,7 @@
     <t>{622.0: 1.0}</t>
   </si>
   <si>
-    <t>{623.0: 0.9992374561537288}</t>
+    <t>{623.0: 0.9992354740061162}</t>
   </si>
   <si>
     <t>{624.0: 1.0}</t>
@@ -1126,10 +1126,10 @@
     <t>{626.0: 1.0}</t>
   </si>
   <si>
-    <t>{627.0: 0.2152097902097902}</t>
-  </si>
-  <si>
-    <t>{629.0: 1.0, 209.0: 0.048963766190058954, 788.0: 0.513246688327918}</t>
+    <t>{627.0: 0.432346990389479}</t>
+  </si>
+  <si>
+    <t>{629.0: 1.0, 209.0: 0.04903634832856514, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{630.0: 1.0}</t>
@@ -1138,7 +1138,7 @@
     <t>{631.0: 1.0}</t>
   </si>
   <si>
-    <t>{251.0: 0.5533106669620003}</t>
+    <t>{251.0: 0.535961341134746}</t>
   </si>
   <si>
     <t>{633.0: 1.0}</t>
@@ -1150,25 +1150,25 @@
     <t>{636.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.001177581845678005}</t>
+    <t>{702.0: 0.001070622812488529}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.39843104872006607}</t>
+    <t>{679.0: 0.5064363143631436}</t>
   </si>
   <si>
     <t>{680.0: 0.9940650146591502}</t>
   </si>
   <si>
-    <t>{681.0: 0.9722793299788939, 171.0: 0.003417356334268778}</t>
+    <t>{681.0: 0.9721811674574424, 171.0: 0.0034317428918510754}</t>
   </si>
   <si>
     <t>{682.0: 1.0}</t>
   </si>
   <si>
-    <t>{683.0: 1.0, 698.0: 0.0021036568325302507}</t>
+    <t>{683.0: 1.0, 698.0: 0.002118993978632306}</t>
   </si>
   <si>
     <t>{684.0: 1.0}</t>
@@ -1177,10 +1177,10 @@
     <t>{685.0: 1.0}</t>
   </si>
   <si>
-    <t>{686.0: 0.8508142863486531}</t>
-  </si>
-  <si>
-    <t>{687.0: 1.0, 174.0: 0.006582278481012658, 502.0: 0.0012146988620776165}</t>
+    <t>{686.0: 0.8513603088813457}</t>
+  </si>
+  <si>
+    <t>{687.0: 1.0, 174.0: 0.006545820745216516, 502.0: 0.0012182018941529578}</t>
   </si>
   <si>
     <t>{688.0: 0.9923619271445359, 208.0: 0.010940919037199124}</t>
@@ -1192,28 +1192,28 @@
     <t>{691.0: 1.0}</t>
   </si>
   <si>
-    <t>{692.0: 1.0, 110.0: 0.027943409349163437}</t>
+    <t>{692.0: 1.0, 110.0: 0.02795442048268693}</t>
   </si>
   <si>
     <t>{693.0: 1.0}</t>
   </si>
   <si>
-    <t>{694.0: 0.9935162094763093, 86.0: 0.10101962291233192}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.1321026344871499, 857.0: 0.09563419857543644}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.996083115505285, 492.0: 0.00687792484409364, 14.0: 0.0009588527772686218, 178.0: 1.605982649391718e-07, 623.0: 7.544958901099875e-07, 97.0: 3.624939584340261e-06}</t>
+    <t>{694.0: 0.9935162094763093, 86.0: 0.10101768276473509}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.13371109293715044, 857.0: 0.09570057077975534}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9960326904257072, 492.0: 0.006841233526282549, 14.0: 0.0009589025198243244, 178.0: 1.6156856797685133e-07, 623.0: 7.564571179588972e-07, 97.0: 3.6138772887889494e-06}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.17833419175498982}</t>
-  </si>
-  <si>
-    <t>{698.0: 0.8169429790709399}</t>
+    <t>{698.0: 0.4128125757708019}</t>
+  </si>
+  <si>
+    <t>{698.0: 0.5824290373109419}</t>
   </si>
   <si>
     <t>{700.0: 0.305808730390477}</t>
@@ -1222,31 +1222,31 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.8094192929256746}</t>
-  </si>
-  <si>
-    <t>{704.0: 1.0, 481.0: 0.006142506142506142}</t>
+    <t>{702.0: 0.8093908462413278}</t>
+  </si>
+  <si>
+    <t>{704.0: 1.0, 481.0: 0.006157635467980296}</t>
   </si>
   <si>
     <t>{705.0: 1.0}</t>
   </si>
   <si>
-    <t>{707.0: 0.9947004269100544}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.24363993603638334}</t>
+    <t>{707.0: 0.9945071711931645}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.24448332331940328}</t>
   </si>
   <si>
     <t>{729.0: 1.0}</t>
   </si>
   <si>
-    <t>{730.0: 0.9535951045385007}</t>
+    <t>{730.0: 0.9525794684731631}</t>
   </si>
   <si>
     <t>{732.0: 1.0}</t>
   </si>
   <si>
-    <t>{734.0: 1.0, 73.0: 0.15663214004979042, 888.0: 0.6845827597220233}</t>
+    <t>{734.0: 1.0, 73.0: 0.156636125432775, 888.0: 0.6845807356371736}</t>
   </si>
   <si>
     <t>{735.0: 1.0}</t>
@@ -1255,28 +1255,28 @@
     <t>{736.0: 1.0}</t>
   </si>
   <si>
-    <t>{737.0: 1.0, 223.0: 0.019194756554307114, 428.0: 0.0037142610348103997}</t>
-  </si>
-  <si>
-    <t>{738.0: 0.9961277831558567}</t>
+    <t>{737.0: 1.0, 223.0: 0.01906090190609019, 428.0: 0.0037142610348103997}</t>
+  </si>
+  <si>
+    <t>{738.0: 0.9961240310077519}</t>
   </si>
   <si>
     <t>{739.0: 1.0}</t>
   </si>
   <si>
-    <t>{740.0: 1.0, 789.0: 0.16721402580269057, 246.0: 0.013082761304817251}</t>
-  </si>
-  <si>
-    <t>{741.0: 0.9918119538491231, 246.0: 0.006519162887947546}</t>
-  </si>
-  <si>
-    <t>{583.0: 0.546159419137084, 742.0: 0.546159419137084, 758.0: 0.001059597887053955}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.5631107081696384}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.4368892918303616}</t>
+    <t>{740.0: 1.0, 789.0: 0.16719979757893755, 246.0: 0.01306833345561365}</t>
+  </si>
+  <si>
+    <t>{741.0: 0.991803949454545, 246.0: 0.0065124679121887925}</t>
+  </si>
+  <si>
+    <t>{583.0: 0.42530712213653776, 742.0: 0.42530712213653776, 758.0: 0.000825133673748399}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.6499878944395125}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.35001210556048745}</t>
   </si>
   <si>
     <t>{746.0: 1.0}</t>
@@ -1288,7 +1288,7 @@
     <t>{748.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.18922155688622755, 476.0: 0.15811907053485494, 534.0: 0.10438459826396616}</t>
+    <t>{298.0: 0.19151515151515153, 476.0: 0.15970004166088042, 534.0: 0.1039450354609929}</t>
   </si>
   <si>
     <t>{750.0: 1.0}</t>
@@ -1297,7 +1297,7 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.953873646434639, 580.0: 0.05907189044466092}</t>
+    <t>{752.0: 0.9537159794456196, 580.0: 0.05901378036103225}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1318,10 +1318,10 @@
     <t>{759.0: 0.9941960447119519}</t>
   </si>
   <si>
-    <t>{760.0: 1.0, 761.0: 0.05816302294063936}</t>
-  </si>
-  <si>
-    <t>{761.0: 0.9418369770593606}</t>
+    <t>{760.0: 1.0, 761.0: 0.05807537591257333}</t>
+  </si>
+  <si>
+    <t>{761.0: 0.9419246240874267}</t>
   </si>
   <si>
     <t>{762.0: 0.9936716013108826, 141.0: 0.03444090426338947}</t>
@@ -1339,16 +1339,16 @@
     <t>{769.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 1.0, 992.0: 0.004195915018970644}</t>
+    <t>{770.0: 1.0, 992.0: 0.004189527220903865}</t>
   </si>
   <si>
     <t>{771.0: 1.0}</t>
   </si>
   <si>
-    <t>{772.0: 1.0, 493.0: 0.007941760423560556}</t>
-  </si>
-  <si>
-    <t>{992.0: 0.34200974234125203}</t>
+    <t>{772.0: 1.0, 493.0: 0.007917308115240818}</t>
+  </si>
+  <si>
+    <t>{992.0: 0.3420146417863564}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1360,16 +1360,16 @@
     <t>{777.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.999406906845107, 171.0: 0.01832283853376267, 184.0: 0.008221436149102493, 593.0: 0.001243463922487012, 420.0: 0.0013266766813100044, 212.0: 1.2416378792924353e-06, 681.0: 7.970287018032109e-09}</t>
+    <t>{778.0: 0.9994224855356005, 171.0: 0.01811161633281786, 184.0: 0.008237802816574552, 593.0: 0.001243129278002249, 420.0: 0.0013245082456821442, 212.0: 1.2366292553340148e-06, 681.0: 7.949191699168725e-09}</t>
   </si>
   <si>
     <t>{779.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 1.0, 81.0: 0.0003984644402254381, 172.0: 8.39876514179992e-07}</t>
-  </si>
-  <si>
-    <t>{783.0: 0.9996818326439707}</t>
+    <t>{781.0: 1.0, 81.0: 0.0003929158868795293, 172.0: 8.253494257144237e-07}</t>
+  </si>
+  <si>
+    <t>{783.0: 0.99967958987504}</t>
   </si>
   <si>
     <t>{784.0: 1.0}</t>
@@ -1381,37 +1381,37 @@
     <t>{786.0: 1.0}</t>
   </si>
   <si>
-    <t>{500.0: 0.25636392206159647}</t>
-  </si>
-  <si>
-    <t>{788.0: -0.041453388785100964}</t>
-  </si>
-  <si>
-    <t>{789.0: 0.8256664652130076, 246.0: 0.06459982785487224}</t>
+    <t>{500.0: 0.25829972406518376}</t>
+  </si>
+  <si>
+    <t>{788.0: -0.036209249771767926}</t>
+  </si>
+  <si>
+    <t>{789.0: 0.8256747836675226, 246.0: 0.06453472764382166}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
   </si>
   <si>
-    <t>{832.0: 0.8805206880520688}</t>
-  </si>
-  <si>
-    <t>{833.0: 1.0, 17.0: 0.015066543902234872, 918.0: 0.0009159606136936112}</t>
+    <t>{832.0: 0.8786591123701605}</t>
+  </si>
+  <si>
+    <t>{833.0: 1.0, 17.0: 0.01506752864366639, 918.0: 0.0009159606136936112}</t>
   </si>
   <si>
     <t>{834.0: 1.0}</t>
   </si>
   <si>
-    <t>{835.0: 0.9951693718708581, 836.0: 0.01623484783609078}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9837651521639091, 835.0: 0.0048306281291418725}</t>
-  </si>
-  <si>
-    <t>{837.0: 1.0, 536.0: 0.4755259768140833, 486.0: 0.7696934975651676, 980.0: 0.30157180612251394}</t>
-  </si>
-  <si>
-    <t>{838.0: 1.0, 423.0: 0.0036780614452617912}</t>
+    <t>{835.0: 0.9949819321325729, 836.0: 0.015424630556912554}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9845753694430874, 835.0: 0.005018067867427023}</t>
+  </si>
+  <si>
+    <t>{837.0: 1.0, 536.0: 0.4783242455325811, 486.0: 0.7664827185593959, 980.0: 0.30157180612251394}</t>
+  </si>
+  <si>
+    <t>{838.0: 1.0, 423.0: 0.0036653730056058647}</t>
   </si>
   <si>
     <t>{839.0: 1.0}</t>
@@ -1426,7 +1426,7 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 0.33900173438483133, 686.0: 0.02724422134304194}</t>
+    <t>{227.0: 0.37937347157157514, 686.0: 0.027147119252179414}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1438,25 +1438,25 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 0.9232439017315892, 707.0: 0.004892798537073047, 634.0: 0.7423394242266101}</t>
+    <t>{848.0: 0.9228851136919364, 707.0: 0.005069249937886742, 634.0: 0.7475404131057521}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 0.9973377703826956, 277.0: 0.03965238146853967}</t>
-  </si>
-  <si>
-    <t>{851.0: 1.0, 7.0: 0.014550392860607237}</t>
-  </si>
-  <si>
-    <t>{852.0: 0.9974811083123426, 922.0: 0.0020619473322330295}</t>
-  </si>
-  <si>
-    <t>{853.0: 1.0, 91.0: 0.00033310405391959646, 104.0: 1.264530874020446e-05, 202.0: 0.7249194398222232, 680.0: 0.00593498534084983, 477.0: 0.8739768911002963, 307.0: 0.015503603393739076, 207.0: 0.4438976377952756}</t>
-  </si>
-  <si>
-    <t>{854.0: 1.0, 976.0: 0.0017019959771004177}</t>
+    <t>{850.0: 0.9973324441480493, 277.0: 0.039839460656926125}</t>
+  </si>
+  <si>
+    <t>{851.0: 1.0, 7.0: 0.014697236919459141}</t>
+  </si>
+  <si>
+    <t>{852.0: 0.9974811083123426, 922.0: 0.0021321840961913714}</t>
+  </si>
+  <si>
+    <t>{853.0: 1.0, 91.0: 0.00032893191109440345, 104.0: 1.1736537672851953e-05, 202.0: 0.7248987685431864, 680.0: 0.00593498534084983, 477.0: 0.8739689428896666, 307.0: 0.015503603393739076, 207.0: 0.4438976377952756}</t>
+  </si>
+  <si>
+    <t>{854.0: 1.0, 976.0: 0.0015838732901367891}</t>
   </si>
   <si>
     <t>{855.0: 1.0}</t>
@@ -1465,10 +1465,10 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 0.8985835125186872, 298.0: 0.0024504054353391455}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.0705509534663924, 543.0: 0.001318306163269806}</t>
+    <t>{857.0: 0.8985182985681253, 298.0: 0.0024728235974672877}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.33960102705905587, 543.0: 0.006347565338594316}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
@@ -1477,13 +1477,13 @@
     <t>{860.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.8897969324361419, 253.0: 0.00146348179676997, 490.0: 0.04277317100117222}</t>
-  </si>
-  <si>
-    <t>{863.0: 1.0, 10.0: 0.010316428261811877}</t>
-  </si>
-  <si>
-    <t>{3.0: 0.7013754525363534}</t>
+    <t>{861.0: 0.895224211041845, 253.0: 0.0014724082418451398, 490.0: 0.04318803107812268}</t>
+  </si>
+  <si>
+    <t>{863.0: 1.0, 10.0: 0.010404826440500132}</t>
+  </si>
+  <si>
+    <t>{3.0: 0.6949628567939019}</t>
   </si>
   <si>
     <t>{885.0: 1.0}</t>
@@ -1492,10 +1492,10 @@
     <t>{886.0: 0.4020987553892459}</t>
   </si>
   <si>
-    <t>{887.0: 0.7717012499083713, 61.0: 0.0007747568947939425}</t>
-  </si>
-  <si>
-    <t>{888.0: 0.30892547741044557}</t>
+    <t>{887.0: 0.7707432339651057, 61.0: 0.0008140865451952957}</t>
+  </si>
+  <si>
+    <t>{888.0: 0.30892745983657405}</t>
   </si>
   <si>
     <t>{889.0: 1.0}</t>
@@ -1510,64 +1510,64 @@
     <t>{892.0: 1.0}</t>
   </si>
   <si>
-    <t>{893.0: 0.9978947368421053}</t>
+    <t>{893.0: 0.9977452085682075}</t>
   </si>
   <si>
     <t>{894.0: 1.0}</t>
   </si>
   <si>
-    <t>{895.0: 0.9977052524222335, 209.0: 0.0017243782148631708}</t>
-  </si>
-  <si>
-    <t>{896.0: 1.0, 897.0: 0.025430154564012833, 209.0: 0.030464606817988293, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
-  </si>
-  <si>
-    <t>{905.0: 1.0, 499.0: 0.04014237690330235}</t>
+    <t>{895.0: 0.9977052524222335, 209.0: 0.0017242466120346155}</t>
+  </si>
+  <si>
+    <t>{896.0: 1.0, 897.0: 0.02537243947858473, 209.0: 0.03046228178952672, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
+  </si>
+  <si>
+    <t>{905.0: 1.0, 499.0: 0.03915895061728395}</t>
   </si>
   <si>
     <t>{906.0: 1.0}</t>
   </si>
   <si>
-    <t>{788.0: 0.5284090305469189}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.9452832276489327}</t>
-  </si>
-  <si>
-    <t>{911.0: 0.987503954444796}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.0943633528885198, 253.0: 0.0001552028830403286, 490.0: 0.004536113445900516}</t>
+    <t>{788.0: 0.5258825654402548}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.9443455648028545}</t>
+  </si>
+  <si>
+    <t>{911.0: 0.9875177753199558}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.08891944116859278, 253.0: 0.00014624908086939602, 490.0: 0.004289713728998983}</t>
   </si>
   <si>
     <t>{913.0: 1.0}</t>
   </si>
   <si>
-    <t>{914.0: 0.95590953518928, 110.0: 0.13225596173777687}</t>
-  </si>
-  <si>
-    <t>{915.0: 1.0, 171.0: 0.25325887987017, 420.0: 0.13447613311335305}</t>
+    <t>{914.0: 0.95590953518928, 110.0: 0.13230807735601716}</t>
+  </si>
+  <si>
+    <t>{915.0: 1.0, 171.0: 0.2504542281463881, 420.0: 0.135890820516969}</t>
   </si>
   <si>
     <t>{916.0: 1.0}</t>
   </si>
   <si>
-    <t>{917.0: 0.863564253001892}</t>
+    <t>{917.0: 0.8632249465758889}</t>
   </si>
   <si>
     <t>{918.0: 0.9990840393863064}</t>
   </si>
   <si>
-    <t>{919.0: 1.0, 297.0: 0.0009905894006934125, 298.0: 0.0010247133896870062, 857.0: 0.0007418295946381623}</t>
+    <t>{919.0: 1.0, 297.0: 0.0009962226557635632, 298.0: 0.0010371901197451876, 857.0: 0.0007423444404376626}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
   </si>
   <si>
-    <t>{921.0: 0.9903586579251832, 275.0: 0.005092341926805755, 686.0: 0.11229006081201946}</t>
-  </si>
-  <si>
-    <t>{922.0: 0.9306830001112347, 887.0: 0.037846795410065276, 61.0: 3.799665439609615e-05}</t>
+    <t>{921.0: 0.9903586579251832, 275.0: 0.005068365700743005, 686.0: 0.11193020485416627}</t>
+  </si>
+  <si>
+    <t>{922.0: 0.9318384535536638, 887.0: 0.03779981112254642, 61.0: 3.992551123346183e-05}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1585,7 +1585,7 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.2986245474636466, 418.0: 0.12031725784494546, 922.0: 0.06612330558756407}</t>
+    <t>{3.0: 0.3050371432060981, 418.0: 0.12063254298053716, 922.0: 0.06489603940345559}</t>
   </si>
   <si>
     <t>{931.0: 0.9138912855910267}</t>
@@ -1594,19 +1594,19 @@
     <t>{932.0: 1.0, 108.0: 0.0004756016360696281}</t>
   </si>
   <si>
-    <t>{933.0: 1.0, 702.0: 0.0035650623885918, 249.0: 0.09355459834493014}</t>
-  </si>
-  <si>
-    <t>{934.0: 1.0, 5.0: 0.014752927942984006}</t>
-  </si>
-  <si>
-    <t>{935.0: 0.9947929895859792}</t>
+    <t>{933.0: 1.0, 702.0: 0.0035676061362825543, 249.0: 0.09435006897597502}</t>
+  </si>
+  <si>
+    <t>{934.0: 1.0, 5.0: 0.014708056784987813}</t>
+  </si>
+  <si>
+    <t>{935.0: 0.9948447126870363}</t>
   </si>
   <si>
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 171.0: 0.001047559187094071, 593.0: 0.0010371487837073355, 85.0: 0.0035962086312661835}</t>
+    <t>{937.0: 1.0, 171.0: 0.0010441683199331733, 593.0: 0.001033446072904923, 85.0: 0.003634651862191165}</t>
   </si>
   <si>
     <t>{940.0: 1.0, 785.0: 0.004104903078677309}</t>
@@ -1615,19 +1615,19 @@
     <t>{941.0: 1.0}</t>
   </si>
   <si>
-    <t>{942.0: 0.99079754601227}</t>
-  </si>
-  <si>
-    <t>{943.0: 1.0, 634.0: 0.2547180118412863, 848.0: 0.07675609826841082, 707.0: 0.0004067745528724848}</t>
+    <t>{942.0: 0.9907869481765835}</t>
+  </si>
+  <si>
+    <t>{943.0: 1.0, 634.0: 0.24960620508518372, 848.0: 0.07711488630806371, 707.0: 0.0004235788689487784}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 1.0, 975.0: 0.00212017325621649, 152.0: 0.0004351136734471881}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.3506731946144431, 615.0: 0.012634838720595046}</t>
+    <t>{971.0: 1.0, 975.0: 0.0021634278806931177, 152.0: 0.0004267121826328142}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.3506731946144431, 615.0: 0.01246779786909029}</t>
   </si>
   <si>
     <t>{973.0: 1.0}</t>
@@ -1636,16 +1636,16 @@
     <t>{974.0: 1.0}</t>
   </si>
   <si>
-    <t>{975.0: 0.9963503872477665}</t>
-  </si>
-  <si>
-    <t>{976.0: 0.9982980040228996}</t>
+    <t>{975.0: 0.996307192025492}</t>
+  </si>
+  <si>
+    <t>{976.0: 0.9984161267098632}</t>
   </si>
   <si>
     <t>{977.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.21782088391677432, 489.0: 0.013859958340009615, 935.0: 7.21689474143249e-05}</t>
+    <t>{782.0: 0.22276459382152106, 489.0: 0.013859958340009615, 935.0: 7.145206738845646e-05}</t>
   </si>
   <si>
     <t>{979.0: 0.9985473561882626, 561.0: 0.022455805064500716}</t>
@@ -1657,19 +1657,19 @@
     <t>{981.0: 1.0}</t>
   </si>
   <si>
-    <t>{989.0: 1.0, 249.0: 0.007024977698483497, 495.0: 0.06982248520710059}</t>
+    <t>{989.0: 1.0, 249.0: 0.007069120287253142, 495.0: 0.07077735124760076}</t>
   </si>
   <si>
     <t>{990.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.37392488484691844}</t>
-  </si>
-  <si>
-    <t>{992.0: 0.27544565774862106}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.0841020217308058}</t>
+    <t>{992.0: 0.42961599983178916}</t>
+  </si>
+  <si>
+    <t>{992.0: 0.21976384529210544}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.07523380214485471}</t>
   </si>
   <si>
     <t>{486.0: 1.0}</t>
@@ -1690,7 +1690,7 @@
     <t>{11.0: 0.9970355731225297, 73.0: 0.0029644268774703555}</t>
   </si>
   <si>
-    <t>{14.0: 0.9919299714123918, 178.0: 0.0006410880191330579, 623.0: 0.0016149870801033589, 696.0: 0.0057214311615196856, 492.0: 9.252232685240912e-05}</t>
+    <t>{14.0: 0.9919351812436294, 178.0: 0.000640674146945109, 623.0: 0.0016139444803098778, 696.0: 0.005717900736820557, 492.0: 9.229939229500005e-05}</t>
   </si>
   <si>
     <t>{17.0: 1.0}</t>
@@ -1705,10 +1705,10 @@
     <t>{44.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.8862345836531402, 246.0: 0.05612080824472423, 681.0: 0.024168276806563138, 741.0: 0.008567682388532191, 789.0: 0.010889510853236133, 90.0: 0.014019138053804303}</t>
-  </si>
-  <si>
-    <t>{48.0: 0.9182990922121357, 443.0: 0.07303779428966833, 291.0: 0.008663113498195959}</t>
+    <t>{46.0: 0.8862345836531401, 246.0: 0.056120064634074165, 681.0: 0.024168276806563138, 741.0: 0.008567682388532191, 789.0: 0.0108902544638862, 90.0: 0.014019138053804293}</t>
+  </si>
+  <si>
+    <t>{48.0: 0.9182990922121357, 443.0: 0.07303779428966835, 291.0: 0.008663113498195955}</t>
   </si>
   <si>
     <t>{49.0: 1.0}</t>
@@ -1723,22 +1723,22 @@
     <t>{73.0: 0.9914168937329702, 888.0: 0.008583106267029973}</t>
   </si>
   <si>
-    <t>{75.0: 0.7733159095487783, 917.0: 0.22668409045122154}</t>
-  </si>
-  <si>
-    <t>{77.0: 0.9994776704100288, 85.0: 0.0005223295899712719}</t>
+    <t>{75.0: 0.7755896859332865, 917.0: 0.22441031406671372}</t>
+  </si>
+  <si>
+    <t>{77.0: 0.9994692848613503, 85.0: 0.0005307151386493299}</t>
   </si>
   <si>
     <t>{79.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.9985382678699433, 172.0: 0.0014617321300571375}</t>
+    <t>{81.0: 0.9985370734491796, 172.0: 0.0014629265508203813}</t>
   </si>
   <si>
     <t>{82.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.9672733850680977, 178.0: 0.02362626069948221, 14.0: 0.00018083264312365534, 492.0: 0.008896842056550164, 97.0: 1.8201557532787838e-05, 696.0: 4.477975213620284e-06}</t>
+    <t>{85.0: 0.9672733850680977, 178.0: 0.02362626069948221, 14.0: 0.00018083264312365534, 492.0: 0.008896841928733116, 97.0: 1.8201557532787838e-05, 696.0: 4.478103030671848e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.9886446353180958, 694.0: 0.011355364681904206}</t>
@@ -1753,7 +1753,7 @@
     <t>{90.0: 1.0}</t>
   </si>
   <si>
-    <t>{91.0: 0.9626363760350688, 104.0: 0.02123015675777379, 92.0: 0.004566266646967782, 294.0: 0.00360459378887126, 566.0: 0.00796260677131807}</t>
+    <t>{91.0: 0.9626363760350688, 104.0: 0.021461673680132704, 92.0: 0.004334749724608858, 294.0: 0.00360459378887126, 566.0: 0.00796260677131807}</t>
   </si>
   <si>
     <t>{92.0: 0.6191995704593853, 91.0: 0.3807298610769218, 104.0: 7.056846369287928e-05}</t>
@@ -1765,16 +1765,16 @@
     <t>{98.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 0.9909510743504856, 543.0: 0.007316841541670785, 86.0: 0.001732084107843088}</t>
-  </si>
-  <si>
-    <t>{107.0: 0.9737688616575129, 543.0: 0.0071899739991009666, 86.0: 0.0017020513057064291, 505.0: 0.017339113037679228}</t>
+    <t>{107.0: 0.9909563540599626, 543.0: 0.007311552603786084, 86.0: 0.0017320933362511442}</t>
+  </si>
+  <si>
+    <t>{107.0: 0.9737740498215102, 543.0: 0.007184776766708101, 86.0: 0.0017020603741020744, 505.0: 0.017339113037679228}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
   </si>
   <si>
-    <t>{109.0: 0.778344322842229, 110.0: 0.22165567715777137}</t>
+    <t>{109.0: 0.7783443228422288, 110.0: 0.22165567715777137}</t>
   </si>
   <si>
     <t>{139.0: 1.0}</t>
@@ -1786,7 +1786,7 @@
     <t>{141.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 0.9847917376007265, 44.0: 0.015208262399273637}</t>
+    <t>{142.0: 0.984711922418711, 44.0: 0.01528807758128922}</t>
   </si>
   <si>
     <t>{144.0: 1.0}</t>
@@ -1801,13 +1801,13 @@
     <t>{152.0: 0.9990500316656111, 975.0: 0.0009499683343888536}</t>
   </si>
   <si>
-    <t>{185.0: 0.4093653665270528, 700.0: 0.568602215730542, 173.0: 0.021891522984659927, 404.0: 0.00014089475774519664}</t>
+    <t>{185.0: 0.4093653665270528, 700.0: 0.568602215730542, 173.0: 0.0218916729923871, 404.0: 0.00014074475001802581}</t>
   </si>
   <si>
     <t>{165.0: 0.9799457697103969, 914.0: 0.019393847876713152, 110.0: 0.0006603824128895607}</t>
   </si>
   <si>
-    <t>{166.0: 0.9992304732589454, 893.0: 0.0007695267410542517}</t>
+    <t>{166.0: 0.9992208804051425, 893.0: 0.0007791195948578107}</t>
   </si>
   <si>
     <t>{171.0: 1.0}</t>
@@ -1816,640 +1816,646 @@
     <t>{172.0: 0.9946275071633239, 81.0: 0.005372492836676218}</t>
   </si>
   <si>
-    <t>{173.0: 0.9475333905575845, 404.0: 0.0060983645409981285, 185.0: 0.0374704936745111, 700.0: 0.0008793088093461031, 420.0: 0.008017123377847022, 212.0: 1.2904684560381367e-06, 681.0: 2.8571257329257632e-08}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.5959365111207398, 502.0: 0.4040634888792602}</t>
+    <t>{173.0: 0.9475398833598638, 404.0: 0.006091871738718653, 185.0: 0.0374704936745111, 700.0: 0.0008793088093461031, 420.0: 0.008017123377847022, 212.0: 1.290468456038137e-06, 681.0: 2.8571257329257632e-08}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.5983900780004562, 502.0: 0.40160992199954376}</t>
   </si>
   <si>
     <t>{175.0: 0.9818551540747693, 399.0: 0.01814484592523072}</t>
   </si>
   <si>
-    <t>{178.0: 0.9852399198650879, 14.0: 0.007540911407281927, 681.0: 0.007219168727630309}</t>
-  </si>
-  <si>
-    <t>{179.0: 0.5950678828464971, 180.0: 0.39450451402987413, 410.0: 0.010246425442575776, 850.0: 0.00016351345391478218, 277.0: 1.7664227138239243e-05}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.9742485155365541, 410.0: 0.025304057170381308, 850.0: 0.00040380460573048857, 277.0: 4.3622687334388525e-05}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.9979967004477969, 277.0: 0.0020032995522036297}</t>
+    <t>{178.0: 0.9851842469737514, 14.0: 0.007540485293466511, 681.0: 0.007275267732782239}</t>
+  </si>
+  <si>
+    <t>{179.0: 0.5960977403468276, 180.0: 0.39350117688896274, 410.0: 0.010220365869510065, 850.0: 0.00016309759271290262, 277.0: 1.7619301986503348e-05}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.9742485155365538, 410.0: 0.025304057170381308, 850.0: 0.00040380460573048857, 277.0: 4.3622687334388525e-05}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.9979888796876848, 277.0: 0.0020111203123151546}</t>
   </si>
   <si>
     <t>{182.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 0.9835310975016114, 171.0: 0.011387480521058113, 593.0: 0.0033967858587322266, 778.0: 0.001684636118598383}</t>
+    <t>{184.0: 0.9834880171812896, 171.0: 0.011407602914240292, 593.0: 0.0034060103392520745, 778.0: 0.001698369565217391}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.9872985781990521, 543.0: 0.012701421800947868}</t>
+  </si>
+  <si>
+    <t>{311.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{202.0: 0.8125259307831424, 307.0: 0.18747406921685747}</t>
+  </si>
+  <si>
+    <t>{203.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{204.0: 0.9946682464454972, 857.0: 0.005331753554502373}</t>
+  </si>
+  <si>
+    <t>{207.0: 0.44800625488663026, 477.0: 0.5519937451133698}</t>
+  </si>
+  <si>
+    <t>{208.0: 0.9980857016639668, 688.0: 0.0019142983360329847}</t>
+  </si>
+  <si>
+    <t>{209.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{210.0: 0.9934332033654832, 82.0: 0.0014364867638005335, 788.0: 0.005130309870716191}</t>
+  </si>
+  <si>
+    <t>{211.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{212.0: 0.972032270562353, 681.0: 0.02796772943764725}</t>
+  </si>
+  <si>
+    <t>{265.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{217.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{218.0: 0.7813754377265826, 409.0: 0.2186245622734175}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.9001536098310294, 999.0: 0.09984639016897082}</t>
+  </si>
+  <si>
+    <t>{222.0: 0.841323611564875, 490.0: 0.0027697896677032928, 503.0: 0.1559065987674213}</t>
+  </si>
+  <si>
+    <t>{223.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{627.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{226.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{227.0: 0.9996683166600523, 297.0: 0.00017861479393955934, 686.0: 0.00015306854600825932}</t>
+  </si>
+  <si>
+    <t>{228.0: 0.9923809523809519, 738.0: 0.007619047619047624}</t>
+  </si>
+  <si>
+    <t>{232.0: 0.9901095019427761, 145.0: 0.0010008242081714354, 301.0: 0.008889673849052161}</t>
+  </si>
+  <si>
+    <t>{238.0: 0.9953091684434968, 253.0: 0.004690831556503198}</t>
+  </si>
+  <si>
+    <t>{240.0: 0.2375030654635065, 241.0: 0.7624969345364935}</t>
+  </si>
+  <si>
+    <t>{241.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.9872985781990522, 543.0: 0.012701421800947868}</t>
+  </si>
+  <si>
+    <t>{246.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{249.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{250.0: 0.9786774628879895, 581.0: 0.019957692120678442, 303.0: 0.0013648449913323526}</t>
+  </si>
+  <si>
+    <t>{251.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{253.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{262.0: 0.9992897727272727, 79.0: 0.0007102272727272727}</t>
+  </si>
+  <si>
+    <t>{263.0: 0.9986024273630011, 595.0: 0.0013975726369988967}</t>
+  </si>
+  <si>
+    <t>{400.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{61.0: 0.28869996457669145, 887.0: 0.7113000354233089}</t>
+  </si>
+  <si>
+    <t>{270.0: 0.9873640905083753, 479.0: 0.012350620848352223, 942.0: 0.0002852886432728136}</t>
+  </si>
+  <si>
+    <t>{272.0: 0.8427700348432053, 203.0: 0.15722996515679444}</t>
+  </si>
+  <si>
+    <t>{275.0: 0.9901557165214858, 921.0: 0.008209432471368641, 686.0: 0.0016348510071454575}</t>
+  </si>
+  <si>
+    <t>{277.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{281.0: 0.9619157530294288, 599.0: 0.009040200038468936, 621.0: 0.029044046932102323}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.9896907216494846, 277.0: 0.010309278350515464}</t>
+  </si>
+  <si>
+    <t>{285.0: 0.9971814395692229, 311.0: 0.0028185604307769973}</t>
+  </si>
+  <si>
+    <t>{286.0: 0.9042955098938932, 909.0: 0.09570449010610674}</t>
+  </si>
+  <si>
+    <t>{288.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{289.0: 0.9615709459459457, 730.0: 0.03842905405405406}</t>
+  </si>
+  <si>
+    <t>{291.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{297.0: 0.9603432320318248, 298.0: 0.039656767968174994}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.9860788863109047, 297.0: 0.013921113689095125}</t>
+  </si>
+  <si>
+    <t>{301.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{303.0: 0.997686969930609, 144.0: 0.002313030069390902}</t>
+  </si>
+  <si>
+    <t>{305.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{306.0: 0.9617261904761909, 142.0: 0.03827380952380952}</t>
+  </si>
+  <si>
+    <t>{309.0: 0.9260438873398633, 204.0: 0.0030879185307461925, 426.0: 0.07086273685860801, 857.0: 5.457270782499869e-06}</t>
+  </si>
+  <si>
+    <t>{226.0: 0.9417289819392756, 5.0: 0.05300183025736113, 759.0: 0.005269187803363386}</t>
+  </si>
+  <si>
+    <t>{315.0: 0.9926840420667584, 217.0: 0.0073159579332418845}</t>
+  </si>
+  <si>
+    <t>{317.0: 0.9820519039534322, 71.0: 0.017948096046568034}</t>
+  </si>
+  <si>
+    <t>{398.0: 0.4871142396204138, 98.0: 0.5128857603795861}</t>
+  </si>
+  <si>
+    <t>{399.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{401.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{402.0: 0.9876183457230786, 476.0: 0.010388828449898685, 141.0: 0.0019928258270227183}</t>
+  </si>
+  <si>
+    <t>{403.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{404.0: 0.7774172615184942, 907.0: 0.2030336321280122, 930.0: 0.019549106353493214}</t>
+  </si>
+  <si>
+    <t>{405.0: 0.3568051425820519, 404.0: 0.643194857417948}</t>
+  </si>
+  <si>
+    <t>{408.0: 0.9431382570917456, 403.0: 0.056861742908254534}</t>
+  </si>
+  <si>
+    <t>{409.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{410.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{404.0: 0.7774172615184942, 907.0: 0.20303363212801223, 930.0: 0.019549106353493214}</t>
+  </si>
+  <si>
+    <t>{414.0: 0.9969001859888407, 759.0: 0.0030998140111593306}</t>
+  </si>
+  <si>
+    <t>{415.0: 0.8729333963155409, 277.0: 0.12706660368445913}</t>
+  </si>
+  <si>
+    <t>{418.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{419.0: 0.9852607709750565, 17.0: 0.01473922902494331}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.9998354992597468, 212.0: 0.00016093754732365617, 681.0: 3.563192929675042e-06}</t>
+  </si>
+  <si>
+    <t>{597.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{423.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{424.0: 0.9521112255406797, 585.0: 0.047489449239571054, 434.0: 0.000399325219749228}</t>
+  </si>
+  <si>
+    <t>{426.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.941983941983942, 755.0: 0.05801605801605802}</t>
+  </si>
+  <si>
+    <t>{428.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.9996376811594208, 783.0: 0.00036231884057971015}</t>
+  </si>
+  <si>
+    <t>{431.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{432.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{434.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{441.0: 0.9886363636363636, 782.0: 0.011363636363636362}</t>
+  </si>
+  <si>
+    <t>{442.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{443.0: 0.8939655172413793, 291.0: 0.10603448275862067}</t>
+  </si>
+  <si>
+    <t>{475.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{476.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{477.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{479.0: 0.9774223894637819, 942.0: 0.02257761053621825}</t>
+  </si>
+  <si>
+    <t>{481.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{483.0: 0.9609996213555467, 563.0: 0.03900037864445286}</t>
+  </si>
+  <si>
+    <t>{489.0: 0.9917305365066561, 935.0: 0.00826946349334409}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9779141104294476, 503.0: 0.022085889570552155}</t>
+  </si>
+  <si>
+    <t>{491.0: 0.594383150823144, 492.0: 0.40561684917685586}</t>
+  </si>
+  <si>
+    <t>{492.0: 0.9810074371926921, 97.0: 0.002446549374644078, 696.0: 0.0004937766021689648, 85.0: 0.000527242705573207, 178.0: 0.015407070206966456, 14.0: 0.00011792391795535073}</t>
+  </si>
+  <si>
+    <t>{493.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{495.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{499.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{500.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{502.0: 0.9978808570755827, 534.0: 0.0009418412997409934, 298.0: 0.0008493757985227521, 857.0: 0.00032792582615348987}</t>
+  </si>
+  <si>
+    <t>{503.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{505.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{507.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{529.0: 0.9897593445980543, 530.0: 0.010240655401945725}</t>
+  </si>
+  <si>
+    <t>{530.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{531.0: 0.9788982259570493, 262.0: 0.019981325863678803, 442.0: 0.0011204481792717086}</t>
+  </si>
+  <si>
+    <t>{534.0: 0.9992392131290078, 402.0: 0.0007513670709772362, 476.0: 7.903684289674034e-06, 141.0: 1.5161157253732234e-06}</t>
+  </si>
+  <si>
+    <t>{535.0: 0.9934522679825392, 71.0: 0.00654773201746062}</t>
+  </si>
+  <si>
+    <t>{536.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{537.0: 0.9727987104573845, 608.0: 0.027201289542615352}</t>
+  </si>
+  <si>
+    <t>{540.0: 0.9966254218222723, 428.0: 0.003374578177727784}</t>
+  </si>
+  <si>
+    <t>{542.0: 0.9478891820580475, 911.0: 0.052110817941952506}</t>
+  </si>
+  <si>
+    <t>{542.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{543.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{544.0: 0.9987328405491024, 975.0: 0.0012671594508975714}</t>
+  </si>
+  <si>
+    <t>{561.0: 0.9975621647976598, 979.0: 0.0024378352023403213}</t>
+  </si>
+  <si>
+    <t>{562.0: 0.9667784212130446, 211.0: 0.0332215787869552}</t>
+  </si>
+  <si>
+    <t>{563.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{564.0: 0.9592461579620107, 565.0: 0.04075384203798936}</t>
+  </si>
+  <si>
+    <t>{565.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{573.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{576.0: 0.9802847754654982, 401.0: 0.019715224534501644}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.9893121166542009, 752.0: 0.010687883345799044}</t>
+  </si>
+  <si>
+    <t>{581.0: 0.9359904975584007, 303.0: 0.06400950244159957}</t>
+  </si>
+  <si>
+    <t>{583.0: 0.6108457830393619, 742.0: 0.38534158079506087, 758.0: 0.003812636165577342}</t>
+  </si>
+  <si>
+    <t>{585.0: 0.9916614024005052, 434.0: 0.00833859759949463}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.3681337174635443, 172.0: 0.07345738928110976, 507.0: 0.5584088932553459}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.9912172314130088, 686.0: 0.005417508426494019, 171.0: 0.003365260160497023}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.9912172314130087, 686.0: 0.005417508426494019, 171.0: 0.003365260160497023}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9991012043861226, 402.0: 0.0008894395353984776, 476.0: 9.356078478926186e-06}</t>
+  </si>
+  <si>
+    <t>{598.0: 0.9820673168294207, 599.0: 0.017932683170579104}</t>
+  </si>
+  <si>
+    <t>{599.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.996050552922591, 852.0: 0.0011727912431587178, 922.0: 0.002776655834250445}</t>
+  </si>
+  <si>
+    <t>{605.0: 0.9748587570621469, 475.0: 0.025141242937853105}</t>
+  </si>
+  <si>
+    <t>{606.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{608.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{609.0: 0.6600271299031932, 886.0: 0.21019972289910618, 610.0: 0.12977314719770067}</t>
+  </si>
+  <si>
+    <t>{610.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{612.0: 0.9644128113879002, 613.0: 0.03558718861209965}</t>
+  </si>
+  <si>
+    <t>{613.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{305.0: 0.829288246523043, 615.0: 0.01963457867466594, 698.0: 0.010908099263703298, 832.0: 0.1401690755385874}</t>
+  </si>
+  <si>
+    <t>{615.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{618.0: 0.984345479082321, 246.0: 0.0026781179241103016, 789.0: 0.012976402993568503}</t>
+  </si>
+  <si>
+    <t>{619.0: 0.9654101869025535, 887.0: 0.013046083606791267, 861.0: 0.021528000860446848, 253.0: 1.5728630208029214e-05}</t>
+  </si>
+  <si>
+    <t>{621.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{623.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{629.0: 0.20385830114630685, 209.0: 0.12419463399985504, 788.0: 0.671947064853838}</t>
+  </si>
+  <si>
+    <t>{702.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{680.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{681.0: 0.9956599978829258, 171.0: 0.0043400021170742036}</t>
+  </si>
+  <si>
+    <t>{683.0: 0.9892029215624007, 698.0: 0.010797078437599238}</t>
+  </si>
+  <si>
+    <t>{686.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{687.0: 0.9971296091852505, 174.0: 0.0017176133835296822, 502.0: 0.0011527774312197106}</t>
+  </si>
+  <si>
+    <t>{688.0: 0.9574829931972787, 208.0: 0.0425170068027211}</t>
+  </si>
+  <si>
+    <t>{689.0: 0.9980198019801979, 700.0: 0.0019801980198019802}</t>
+  </si>
+  <si>
+    <t>{692.0: 0.9612552033301314, 110.0: 0.03874479666986872}</t>
+  </si>
+  <si>
+    <t>{694.0: 0.9398443029016278, 86.0: 0.06015569709837227}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.7214598032652259, 857.0: 0.2785401967347743}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9816388484063283, 492.0: 0.01785610337176307, 14.0: 0.0004997993859138207, 178.0: 3.2281196520579893e-07, 623.0: 8.132068258195552e-07, 97.0: 4.11281720352593e-06}</t>
+  </si>
+  <si>
+    <t>{698.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{700.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{704.0: 0.9874529485570892, 481.0: 0.012547051442910913}</t>
+  </si>
+  <si>
+    <t>{707.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{580.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{730.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{734.0: 0.2644190502430502, 73.0: 0.13520755011292845, 888.0: 0.6003733996440214}</t>
+  </si>
+  <si>
+    <t>{737.0: 0.9279588336192108, 223.0: 0.03516295025728988, 428.0: 0.03687821612349914}</t>
+  </si>
+  <si>
+    <t>{738.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{740.0: 0.7011235955056179, 789.0: 0.28175004279029686, 246.0: 0.017126361704085165}</t>
+  </si>
+  <si>
+    <t>{741.0: 0.9831149927219793, 246.0: 0.016885007278020378}</t>
+  </si>
+  <si>
+    <t>{583.0: 0.6108457830393619, 742.0: 0.3853415807950608, 758.0: 0.003812636165577342}</t>
+  </si>
+  <si>
+    <t>{743.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.562630917469627, 476.0: 0.24088814411395051, 534.0: 0.19648093841642233}</t>
+  </si>
+  <si>
+    <t>{752.0: 0.7472432930230416, 580.0: 0.25275670697695835}</t>
+  </si>
+  <si>
+    <t>{755.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{758.0: 0.999168975069252, 583.0: 0.0005095708829251116, 742.0: 0.0003214540478228109}</t>
+  </si>
+  <si>
+    <t>{759.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{760.0: 0.7957918248415949, 761.0: 0.20420817515840514}</t>
+  </si>
+  <si>
+    <t>{761.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{762.0: 0.9509029955661304, 141.0: 0.04909700443387044}</t>
+  </si>
+  <si>
+    <t>{770.0: 0.9801712483100495, 992.0: 0.01982875168995043}</t>
+  </si>
+  <si>
+    <t>{772.0: 0.9882429784454605, 493.0: 0.011757021554539513}</t>
+  </si>
+  <si>
+    <t>{992.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{778.0: 0.9753594977972543, 171.0: 0.018743715381244096, 184.0: 0.0024402799418704003, 593.0: 0.0014829986394605864, 420.0: 0.0019731835966043188, 212.0: 3.176115757961011e-07, 681.0: 7.031990608031756e-09}</t>
+  </si>
+  <si>
+    <t>{781.0: 0.9996501457725947, 81.0: 0.00034934241636705996, 172.0: 5.118110381878884e-07}</t>
+  </si>
+  <si>
+    <t>{783.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{785.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{788.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{789.0: 0.9426975115915951, 246.0: 0.05730248840840527}</t>
+  </si>
+  <si>
+    <t>{832.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{833.0: 0.9940704167244314, 17.0: 0.004682700482551158, 918.0: 0.0012468827930174563}</t>
+  </si>
+  <si>
+    <t>{835.0: 0.9900669157761304, 836.0: 0.009933084223869343}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9922515952597998, 835.0: 0.0077484047402005445}</t>
+  </si>
+  <si>
+    <t>{837.0: 0.7910588189347849, 536.0: 0.11520779038336176, 486.0: 0.07468196059767147, 980.0: 0.019051430084181874}</t>
+  </si>
+  <si>
+    <t>{838.0: 0.9922515952597999, 423.0: 0.007748404740200547}</t>
+  </si>
+  <si>
+    <t>{227.0: 0.9322033898305087, 686.0: 0.06779661016949153}</t>
+  </si>
+  <si>
+    <t>{848.0: 0.8022190532860042, 707.0: 0.004568879278325609, 634.0: 0.19321206743566993}</t>
+  </si>
+  <si>
+    <t>{850.0: 0.9025032938076418, 277.0: 0.09749670619235835}</t>
+  </si>
+  <si>
+    <t>{851.0: 0.923430321592649, 7.0: 0.07656967840735066}</t>
+  </si>
+  <si>
+    <t>{852.0: 0.989835809225958, 922.0: 0.010164190774042221}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.8487926071796242, 91.0: 0.0010063902516635884, 104.0: 1.8653491936383985e-07, 202.0: 0.06321913531305247, 680.0: 0.00018165110585939898, 477.0: 0.08462716049435266, 307.0: 8.839720974269258e-05, 207.0: 0.002084471910785455}</t>
+  </si>
+  <si>
+    <t>{854.0: 0.9973352713178296, 976.0: 0.0026647286821705426}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.9947307303085411, 298.0: 0.005269269691458644}</t>
   </si>
   <si>
     <t>{858.0: 0.9872985781990521, 543.0: 0.012701421800947866}</t>
   </si>
   <si>
-    <t>{311.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{202.0: 0.8125259307831424, 307.0: 0.18747406921685747}</t>
-  </si>
-  <si>
-    <t>{203.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{204.0: 0.9946148092744951, 857.0: 0.005385190725504863}</t>
-  </si>
-  <si>
-    <t>{207.0: 0.4623000761614623, 477.0: 0.5376999238385377}</t>
-  </si>
-  <si>
-    <t>{208.0: 0.9980857016639668, 688.0: 0.0019142983360329847}</t>
-  </si>
-  <si>
-    <t>{209.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{210.0: 0.9934332033654832, 82.0: 0.0014364867638005335, 788.0: 0.005130309870716191}</t>
-  </si>
-  <si>
-    <t>{211.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{212.0: 0.972032270562353, 681.0: 0.02796772943764725}</t>
-  </si>
-  <si>
-    <t>{265.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{217.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{218.0: 0.7815333823680913, 409.0: 0.21846661763190867}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.9001536098310291, 999.0: 0.09984639016897079}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.9001536098310289, 999.0: 0.09984639016897079}</t>
-  </si>
-  <si>
-    <t>{222.0: 0.8416485635345011, 490.0: 0.002764034691410511, 503.0: 0.15558740177408845}</t>
-  </si>
-  <si>
-    <t>{223.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{627.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{226.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{227.0: 0.999666475270424, 297.0: 0.0001804561835678022, 686.0: 0.00015306854600825932}</t>
-  </si>
-  <si>
-    <t>{228.0: 0.9923809523809519, 738.0: 0.007619047619047619}</t>
-  </si>
-  <si>
-    <t>{232.0: 0.9901095019427761, 145.0: 0.0010008242081714354, 301.0: 0.008889673849052161}</t>
-  </si>
-  <si>
-    <t>{238.0: 0.9953091684434968, 253.0: 0.004690831556503198}</t>
-  </si>
-  <si>
-    <t>{240.0: 0.2375030654635066, 241.0: 0.7624969345364935}</t>
-  </si>
-  <si>
-    <t>{241.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.9872985781990522, 543.0: 0.012701421800947866}</t>
-  </si>
-  <si>
-    <t>{246.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{249.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{250.0: 0.9786774628879895, 581.0: 0.019957692120678442, 303.0: 0.0013648449913323526}</t>
-  </si>
-  <si>
-    <t>{251.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{253.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{262.0: 0.9992897727272727, 79.0: 0.0007102272727272727}</t>
-  </si>
-  <si>
-    <t>{263.0: 0.9986023245549507, 595.0: 0.0013976754450492864}</t>
-  </si>
-  <si>
-    <t>{400.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{61.0: 0.28869996457669145, 887.0: 0.7113000354233081}</t>
-  </si>
-  <si>
-    <t>{270.0: 0.9873640905083753, 479.0: 0.012356147657862113, 942.0: 0.0002797618337629159}</t>
-  </si>
-  <si>
-    <t>{272.0: 0.8427700348432053, 203.0: 0.15722996515679444}</t>
-  </si>
-  <si>
-    <t>{275.0: 0.9901557165214858, 921.0: 0.008209432471368641, 686.0: 0.0016348510071454577}</t>
-  </si>
-  <si>
-    <t>{277.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{281.0: 0.9619157530294288, 599.0: 0.009040200038468936, 621.0: 0.029044046932102323}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.9896907216494846, 277.0: 0.010309278350515464}</t>
-  </si>
-  <si>
-    <t>{285.0: 0.9971814395692229, 311.0: 0.0028185604307769973}</t>
-  </si>
-  <si>
-    <t>{286.0: 0.9038647175249137, 909.0: 0.09613528247508592}</t>
-  </si>
-  <si>
-    <t>{288.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{289.0: 0.9615709459459457, 730.0: 0.03842905405405406}</t>
-  </si>
-  <si>
-    <t>{291.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{297.0: 0.9603432910825851, 298.0: 0.0396567089174152}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.9860774179938827, 297.0: 0.013922582006117505}</t>
-  </si>
-  <si>
-    <t>{301.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{303.0: 0.9976967370441456, 144.0: 0.0023032629558541267}</t>
-  </si>
-  <si>
-    <t>{305.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{306.0: 0.96172619047619, 142.0: 0.03827380952380952}</t>
-  </si>
-  <si>
-    <t>{309.0: 0.9237155121541841, 204.0: 0.003135424277730701, 426.0: 0.0731432659158121, 857.0: 5.797652272921261e-06}</t>
-  </si>
-  <si>
-    <t>{226.0: 0.9417289819392756, 5.0: 0.05300183025736113, 759.0: 0.005269187803363386}</t>
-  </si>
-  <si>
-    <t>{315.0: 0.992684042066758, 217.0: 0.0073159579332418845}</t>
-  </si>
-  <si>
-    <t>{317.0: 0.9822371579452714, 71.0: 0.017762842054728757}</t>
-  </si>
-  <si>
-    <t>{398.0: 0.4871142396204138, 98.0: 0.5128857603795861}</t>
-  </si>
-  <si>
-    <t>{399.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{401.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{402.0: 0.9876183457230786, 476.0: 0.010388828449898685, 141.0: 0.0019928258270227183}</t>
-  </si>
-  <si>
-    <t>{403.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{404.0: 0.7774172615184942, 907.0: 0.20290434809713287, 930.0: 0.019678390384372572}</t>
-  </si>
-  <si>
-    <t>{405.0: 0.3647447487468991, 404.0: 0.6352552512531009}</t>
-  </si>
-  <si>
-    <t>{408.0: 0.94304, 403.0: 0.05696}</t>
-  </si>
-  <si>
-    <t>{409.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{410.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{414.0: 0.9969001859888407, 759.0: 0.0030998140111593306}</t>
-  </si>
-  <si>
-    <t>{415.0: 0.8731132075471698, 277.0: 0.1268867924528302}</t>
-  </si>
-  <si>
-    <t>{418.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{419.0: 0.9852104664391353, 17.0: 0.01478953356086462}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.9998354992597468, 212.0: 0.00016093754732365612, 681.0: 3.563192929675042e-06}</t>
-  </si>
-  <si>
-    <t>{597.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{423.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{424.0: 0.9520371325425477, 585.0: 0.0475629244060067, 434.0: 0.0003999430514455908}</t>
-  </si>
-  <si>
-    <t>{426.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.941983941983942, 755.0: 0.05801605801605802}</t>
-  </si>
-  <si>
-    <t>{428.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.9998116051243406, 783.0: 0.00018839487565938207}</t>
-  </si>
-  <si>
-    <t>{431.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{432.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{434.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{441.0: 0.9886363636363631, 782.0: 0.01136363636363637}</t>
-  </si>
-  <si>
-    <t>{442.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{443.0: 0.8939655172413793, 291.0: 0.1060344827586207}</t>
-  </si>
-  <si>
-    <t>{475.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{476.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{477.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{479.0: 0.977859778597786, 942.0: 0.022140221402214017}</t>
-  </si>
-  <si>
-    <t>{481.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{483.0: 0.9609996213555473, 563.0: 0.03900037864445286}</t>
-  </si>
-  <si>
-    <t>{489.0: 0.9916936790923822, 935.0: 0.008306320907617504}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9778869778869781, 503.0: 0.022113022113022112}</t>
-  </si>
-  <si>
-    <t>{491.0: 0.594383150823144, 492.0: 0.40561684917685586}</t>
-  </si>
-  <si>
-    <t>{492.0: 0.9810074512863981, 97.0: 0.002446549374644078, 696.0: 0.0004937625084625475, 85.0: 0.000527242705573207, 178.0: 0.015407070206966456, 14.0: 0.00011792391795535073}</t>
-  </si>
-  <si>
-    <t>{493.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{495.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{499.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{500.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{502.0: 0.9978808570755827, 534.0: 0.0009418412997409934, 298.0: 0.0008492817296495458, 857.0: 0.00032801989502669624}</t>
-  </si>
-  <si>
-    <t>{503.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{505.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{507.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{529.0: 0.9897593445980543, 530.0: 0.010240655401945725}</t>
-  </si>
-  <si>
-    <t>{530.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{531.0: 0.9788982259570493, 262.0: 0.019981325863678803, 442.0: 0.0011204481792717086}</t>
-  </si>
-  <si>
-    <t>{534.0: 0.9992392131290078, 402.0: 0.0007513670709772362, 476.0: 7.903684289674034e-06, 141.0: 1.5161157253732234e-06}</t>
-  </si>
-  <si>
-    <t>{535.0: 0.9934522679825396, 71.0: 0.00654773201746062}</t>
-  </si>
-  <si>
-    <t>{536.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{537.0: 0.9727987104573845, 608.0: 0.027201289542615352}</t>
-  </si>
-  <si>
-    <t>{540.0: 0.9966254218222723, 428.0: 0.003374578177727784}</t>
-  </si>
-  <si>
-    <t>{542.0: 0.9478891820580475, 911.0: 0.052110817941952506}</t>
-  </si>
-  <si>
-    <t>{542.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{543.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{544.0: 0.9987328405491024, 975.0: 0.0012671594508975714}</t>
-  </si>
-  <si>
-    <t>{561.0: 0.9975621647976598, 979.0: 0.0024378352023403213}</t>
-  </si>
-  <si>
-    <t>{562.0: 0.9667784212130446, 211.0: 0.0332215787869552}</t>
-  </si>
-  <si>
-    <t>{563.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{564.0: 0.9592461579620107, 565.0: 0.04075384203798936}</t>
-  </si>
-  <si>
-    <t>{565.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{573.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{576.0: 0.9802847754654981, 401.0: 0.019715224534501644}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.9890580546836161, 752.0: 0.010941945316383228}</t>
-  </si>
-  <si>
-    <t>{581.0: 0.9359904975584007, 303.0: 0.06400950244159957}</t>
-  </si>
-  <si>
-    <t>{583.0: 0.6108457830393615, 742.0: 0.3853415807950608, 758.0: 0.003812636165577342}</t>
-  </si>
-  <si>
-    <t>{585.0: 0.9916614024005049, 434.0: 0.00833859759949463}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.3681337174635443, 172.0: 0.07345738928110976, 507.0: 0.5584088932553459}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.991207567281932, 686.0: 0.005427172557571231, 171.0: 0.003365260160497023}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9991012043861226, 402.0: 0.0008894395353984784, 476.0: 9.356078478926186e-06}</t>
-  </si>
-  <si>
-    <t>{598.0: 0.9820673168294207, 599.0: 0.017932683170579104}</t>
-  </si>
-  <si>
-    <t>{599.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.996050552922591, 852.0: 0.001172884671243, 922.0: 0.002776562406166162}</t>
-  </si>
-  <si>
-    <t>{605.0: 0.9748587570621469, 475.0: 0.025141242937853105}</t>
-  </si>
-  <si>
-    <t>{606.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{608.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{609.0: 0.6600271299031932, 886.0: 0.21019972289910618, 610.0: 0.12977314719770067}</t>
-  </si>
-  <si>
-    <t>{610.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{612.0: 0.9644128113879002, 613.0: 0.03558718861209965}</t>
-  </si>
-  <si>
-    <t>{613.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{305.0: 0.829288246523043, 615.0: 0.019634578674665937, 698.0: 0.010908099263703298, 832.0: 0.14016907553858743}</t>
-  </si>
-  <si>
-    <t>{615.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{618.0: 0.984345479082321, 246.0: 0.0026790039815938627, 789.0: 0.01297551693608495}</t>
-  </si>
-  <si>
-    <t>{619.0: 0.965509644191444, 887.0: 0.013007925875422115, 861.0: 0.021466746056462076, 253.0: 1.5683876672083762e-05}</t>
-  </si>
-  <si>
-    <t>{621.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{623.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{629.0: 0.20385830114630685, 209.0: 0.12419463399985504, 788.0: 0.671947064853838}</t>
-  </si>
-  <si>
-    <t>{702.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{680.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{681.0: 0.9956599978829258, 171.0: 0.0043400021170742036}</t>
-  </si>
-  <si>
-    <t>{683.0: 0.9892029215624007, 698.0: 0.010797078437599238}</t>
-  </si>
-  <si>
-    <t>{686.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{687.0: 0.9971534924458071, 174.0: 0.0016963377807246807, 502.0: 0.0011501697734684442}</t>
-  </si>
-  <si>
-    <t>{688.0: 0.9574829931972787, 208.0: 0.0425170068027211}</t>
-  </si>
-  <si>
-    <t>{689.0: 0.9980198019801979, 700.0: 0.0019801980198019802}</t>
-  </si>
-  <si>
-    <t>{692.0: 0.9612552033301314, 110.0: 0.03874479666986872}</t>
-  </si>
-  <si>
-    <t>{694.0: 0.9398443029016278, 86.0: 0.06015569709837227}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.721379901164324, 857.0: 0.2786200988356758}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9816108316661318, 492.0: 0.017884122003138155, 14.0: 0.0004997967608728882, 178.0: 3.230205000670429e-07, 623.0: 8.137321532264153e-07, 97.0: 4.11281720352593e-06}</t>
-  </si>
-  <si>
-    <t>{698.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{700.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{704.0: 0.9874529485570892, 481.0: 0.012547051442910916}</t>
-  </si>
-  <si>
-    <t>{707.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{580.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{730.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{734.0: 0.26422101444321144, 73.0: 0.13523849320665327, 888.0: 0.6005404923501354}</t>
-  </si>
-  <si>
-    <t>{737.0: 0.9266375545851536, 223.0: 0.03580786026200873, 428.0: 0.03755458515283843}</t>
-  </si>
-  <si>
-    <t>{738.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{740.0: 0.701123595505618, 789.0: 0.2817308042745055, 246.0: 0.017145600219876624}</t>
-  </si>
-  <si>
-    <t>{741.0: 0.9831149927219796, 246.0: 0.016885007278020378}</t>
-  </si>
-  <si>
-    <t>{743.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.562630917469627, 476.0: 0.24088814411395051, 534.0: 0.19648093841642233}</t>
-  </si>
-  <si>
-    <t>{752.0: 0.7469500530952459, 580.0: 0.25304994690475374}</t>
-  </si>
-  <si>
-    <t>{755.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{758.0: 0.999168975069252, 583.0: 0.0005095708829251114, 742.0: 0.0003214540478228109}</t>
-  </si>
-  <si>
-    <t>{759.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{760.0: 0.7957918248415949, 761.0: 0.20420817515840514}</t>
-  </si>
-  <si>
-    <t>{761.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{762.0: 0.9509029955661304, 141.0: 0.04909700443387044}</t>
-  </si>
-  <si>
-    <t>{770.0: 0.9803571428571428, 992.0: 0.019642857142857142}</t>
-  </si>
-  <si>
-    <t>{772.0: 0.9882429784454609, 493.0: 0.011757021554539523}</t>
-  </si>
-  <si>
-    <t>{992.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{778.0: 0.9748082592125862, 171.0: 0.019238165421154786, 184.0: 0.002458085790359677, 593.0: 0.0015219813357285332, 420.0: 0.0019731835966043188, 212.0: 3.1761157579610095e-07, 681.0: 7.031990608031754e-09}</t>
-  </si>
-  <si>
-    <t>{781.0: 0.9996501457725947, 81.0: 0.00034934283424021336, 172.0: 5.113931650345672e-07}</t>
-  </si>
-  <si>
-    <t>{783.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{785.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{788.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{789.0: 0.9426331421214653, 246.0: 0.05736685787853456}</t>
-  </si>
-  <si>
-    <t>{832.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{833.0: 0.9940704167244314, 17.0: 0.004682700482551158, 918.0: 0.0012468827930174563}</t>
-  </si>
-  <si>
-    <t>{835.0: 0.9904058244467709, 836.0: 0.009594175553229308}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9918426103646832, 835.0: 0.008157389635316698}</t>
-  </si>
-  <si>
-    <t>{837.0: 0.7910588189347849, 536.0: 0.11520779038336174, 486.0: 0.07468196059767147, 980.0: 0.019051430084181874}</t>
-  </si>
-  <si>
-    <t>{838.0: 0.9922515952597992, 423.0: 0.007748404740200545}</t>
-  </si>
-  <si>
-    <t>{227.0: 0.9322033898305083, 686.0: 0.06779661016949153}</t>
-  </si>
-  <si>
-    <t>{848.0: 0.8022190532860046, 707.0: 0.004568879278325606, 634.0: 0.19321206743566993}</t>
-  </si>
-  <si>
-    <t>{850.0: 0.9025032938076415, 277.0: 0.09749670619235835}</t>
-  </si>
-  <si>
-    <t>{851.0: 0.923430321592649, 7.0: 0.07656967840735066}</t>
-  </si>
-  <si>
-    <t>{852.0: 0.9899146625290919, 922.0: 0.01008533747090768}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.8487926071796246, 91.0: 0.0010063902516635884, 104.0: 1.8653491936383985e-07, 202.0: 0.06321913531305247, 680.0: 0.00018165110585939898, 477.0: 0.08456065457257103, 307.0: 8.839720974269258e-05, 207.0: 0.002150977832567094}</t>
-  </si>
-  <si>
-    <t>{854.0: 0.99734555984556, 976.0: 0.0026544401544401543}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.9947818696254723, 298.0: 0.005218130374527883}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.9872985781990521, 543.0: 0.012701421800947865}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.9908212213410218, 253.0: 0.0007239065389194395, 490.0: 0.008454872120059184}</t>
+    <t>{861.0: 0.9908122828101357, 253.0: 0.0007239000083155151, 490.0: 0.008463817181548879}</t>
   </si>
   <si>
     <t>{863.0: 0.9722739981360669, 10.0: 0.027726001863932894}</t>
@@ -2461,7 +2467,7 @@
     <t>{886.0: 1.0}</t>
   </si>
   <si>
-    <t>{887.0: 0.9991196024500588, 61.0: 0.000880397549941118}</t>
+    <t>{887.0: 0.9991324078477682, 61.0: 0.0008675921522319135}</t>
   </si>
   <si>
     <t>{888.0: 1.0}</t>
@@ -2485,13 +2491,10 @@
     <t>{911.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.9908212213410217, 253.0: 0.0007239065389194395, 490.0: 0.008454872120059184}</t>
-  </si>
-  <si>
     <t>{914.0: 0.9042779872152106, 110.0: 0.09572201278478935}</t>
   </si>
   <si>
-    <t>{915.0: 0.5124185505583967, 171.0: 0.26032762398046216, 420.0: 0.22725382546114126}</t>
+    <t>{915.0: 0.5204580106136844, 171.0: 0.2557483187470411, 420.0: 0.2237936706392746}</t>
   </si>
   <si>
     <t>{917.0: 1.0}</t>
@@ -2500,16 +2503,16 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{919.0: 0.9888946350590236, 297.0: 0.005990275426909785, 298.0: 0.003689922768103959, 857.0: 0.0014251667459625362}</t>
+    <t>{919.0: 0.9890254656143603, 297.0: 0.005859444871573596, 298.0: 0.003690331474502434, 857.0: 0.001424758039564063}</t>
   </si>
   <si>
     <t>{921.0: 0.81830247409683, 275.0: 0.00526171858344155, 686.0: 0.17643580731972855}</t>
   </si>
   <si>
-    <t>{922.0: 0.9315741024854249, 887.0: 0.06836565552205066, 61.0: 6.02419925243539e-05}</t>
-  </si>
-  <si>
-    <t>{3.0: 0.6037465689154068, 418.0: 0.22706767089552465, 922.0: 0.16918576018906858}</t>
+    <t>{922.0: 0.9315741024854249, 887.0: 0.06836653174288196, 61.0: 5.9365771693070486e-05}</t>
+  </si>
+  <si>
+    <t>{3.0: 0.6037733799331189, 418.0: 0.2270600978914214, 922.0: 0.1691665221754596}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
@@ -2518,7 +2521,7 @@
     <t>{932.0: 0.9982325910215624, 108.0: 0.0017674089784376107}</t>
   </si>
   <si>
-    <t>{933.0: 0.8733408699141655, 702.0: 0.00550829940027856, 249.0: 0.12115083068555585}</t>
+    <t>{933.0: 0.8738662178227142, 702.0: 0.005485663639816162, 249.0: 0.12064811853746933}</t>
   </si>
   <si>
     <t>{934.0: 0.9685171068747108, 5.0: 0.03148289312528854}</t>
@@ -2527,7 +2530,7 @@
     <t>{935.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 0.9879985585965653, 171.0: 0.003293328528655217, 593.0: 0.0036190543506065143, 85.0: 0.0050890585241730275}</t>
+    <t>{937.0: 0.9880009426222852, 171.0: 0.003293336475407618, 593.0: 0.0036166623781342037, 85.0: 0.0050890585241730275}</t>
   </si>
   <si>
     <t>{940.0: 0.9931610942249239, 785.0: 0.00683890577507599}</t>
@@ -2536,13 +2539,13 @@
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.7305358356680623, 634.0: 0.10812454662003078, 848.0: 0.16042594361443505, 707.0: 0.0009136740974718651}</t>
-  </si>
-  <si>
-    <t>{971.0: 0.9930875576036869, 975.0: 0.005883289646722212, 152.0: 0.0010291527495911526}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.9541375872382851, 615.0: 0.04586241276171485}</t>
+    <t>{943.0: 0.7045586858250901, 634.0: 0.10993183872972913, 848.0: 0.184458926268521, 707.0: 0.001050549176659826}</t>
+  </si>
+  <si>
+    <t>{971.0: 0.9930875576036869, 975.0: 0.005883289646722212, 152.0: 0.0010291527495911524}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.9537688442211056, 615.0: 0.046231155778894494}</t>
   </si>
   <si>
     <t>{975.0: 1.0}</t>
@@ -2551,7 +2554,7 @@
     <t>{976.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.9504155918601317, 489.0: 0.04917254413384412, 935.0: 0.0004118640060240264}</t>
+    <t>{782.0: 0.9504155918601317, 489.0: 0.049174371686916435, 935.0: 0.0004100364529517132}</t>
   </si>
   <si>
     <t>{979.0: 0.9865097588978187, 561.0: 0.0134902411021814}</t>
@@ -4351,7 +4354,7 @@
         <v>131</v>
       </c>
       <c r="C130" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -4362,7 +4365,7 @@
         <v>132</v>
       </c>
       <c r="C131" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -4373,7 +4376,7 @@
         <v>133</v>
       </c>
       <c r="C132" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -4384,7 +4387,7 @@
         <v>134</v>
       </c>
       <c r="C133" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -4406,7 +4409,7 @@
         <v>136</v>
       </c>
       <c r="C135" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -4417,7 +4420,7 @@
         <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -4428,7 +4431,7 @@
         <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -4472,7 +4475,7 @@
         <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -4527,7 +4530,7 @@
         <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -4549,7 +4552,7 @@
         <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -4560,12 +4563,12 @@
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -4576,7 +4579,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -4587,40 +4590,40 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>635</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>155</v>
+        <v>635</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4631,73 +4634,73 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>637</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>160</v>
+        <v>638</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>640</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>162</v>
+        <v>639</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -4708,7 +4711,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -4719,7 +4722,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -4730,7 +4733,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4741,7 +4744,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4752,7 +4755,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4763,106 +4766,106 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>641</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>620</v>
+        <v>641</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>643</v>
+        <v>620</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>175</v>
+        <v>644</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>646</v>
+        <v>176</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>177</v>
+        <v>645</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4873,51 +4876,51 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>647</v>
+        <v>179</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>180</v>
+        <v>646</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>648</v>
+        <v>181</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>182</v>
+        <v>647</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4928,40 +4931,40 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>649</v>
+        <v>184</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>186</v>
+        <v>649</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4972,95 +4975,95 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>651</v>
+        <v>188</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>190</v>
+        <v>651</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>653</v>
+        <v>191</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>193</v>
+        <v>653</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>655</v>
+        <v>194</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>195</v>
+        <v>654</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -5071,7 +5074,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -5082,40 +5085,40 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>656</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>200</v>
+        <v>656</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -5126,161 +5129,161 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>658</v>
+        <v>202</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>204</v>
+        <v>658</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>660</v>
+        <v>205</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>207</v>
+        <v>660</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>662</v>
+        <v>208</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>209</v>
+        <v>661</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>610</v>
+        <v>210</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>663</v>
+        <v>610</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>213</v>
+        <v>663</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>665</v>
+        <v>214</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>215</v>
+        <v>664</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -5291,7 +5294,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -5308,7 +5311,7 @@
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -5319,7 +5322,7 @@
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -5330,7 +5333,7 @@
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -5341,7 +5344,7 @@
         <v>221</v>
       </c>
       <c r="C220" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -5352,7 +5355,7 @@
         <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -5363,7 +5366,7 @@
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -5374,7 +5377,7 @@
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -5385,7 +5388,7 @@
         <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -5418,7 +5421,7 @@
         <v>228</v>
       </c>
       <c r="C227" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -5429,7 +5432,7 @@
         <v>229</v>
       </c>
       <c r="C228" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -5440,7 +5443,7 @@
         <v>230</v>
       </c>
       <c r="C229" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -5451,7 +5454,7 @@
         <v>231</v>
       </c>
       <c r="C230" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -6617,7 +6620,7 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6628,7 +6631,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6661,7 +6664,7 @@
         <v>341</v>
       </c>
       <c r="C340" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6672,7 +6675,7 @@
         <v>342</v>
       </c>
       <c r="C341" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -6727,7 +6730,7 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6738,7 +6741,7 @@
         <v>348</v>
       </c>
       <c r="C347" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6749,7 +6752,7 @@
         <v>349</v>
       </c>
       <c r="C348" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6771,7 +6774,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6782,7 +6785,7 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6793,7 +6796,7 @@
         <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6815,7 +6818,7 @@
         <v>355</v>
       </c>
       <c r="C354" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -6826,7 +6829,7 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6837,7 +6840,7 @@
         <v>357</v>
       </c>
       <c r="C356" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6848,7 +6851,7 @@
         <v>358</v>
       </c>
       <c r="C357" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6881,7 +6884,7 @@
         <v>361</v>
       </c>
       <c r="C360" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6892,7 +6895,7 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6914,7 +6917,7 @@
         <v>364</v>
       </c>
       <c r="C363" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6936,7 +6939,7 @@
         <v>366</v>
       </c>
       <c r="C365" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6980,7 +6983,7 @@
         <v>370</v>
       </c>
       <c r="C369" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6991,7 +6994,7 @@
         <v>371</v>
       </c>
       <c r="C370" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -7024,7 +7027,7 @@
         <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -7068,7 +7071,7 @@
         <v>378</v>
       </c>
       <c r="C377" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -7101,7 +7104,7 @@
         <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -7112,7 +7115,7 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -7134,7 +7137,7 @@
         <v>384</v>
       </c>
       <c r="C383" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -7167,7 +7170,7 @@
         <v>387</v>
       </c>
       <c r="C386" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -7178,7 +7181,7 @@
         <v>388</v>
       </c>
       <c r="C387" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -7189,7 +7192,7 @@
         <v>389</v>
       </c>
       <c r="C388" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -7200,7 +7203,7 @@
         <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -7222,7 +7225,7 @@
         <v>392</v>
       </c>
       <c r="C391" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -7244,7 +7247,7 @@
         <v>394</v>
       </c>
       <c r="C393" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -7255,7 +7258,7 @@
         <v>395</v>
       </c>
       <c r="C394" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -7266,7 +7269,7 @@
         <v>396</v>
       </c>
       <c r="C395" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -7288,7 +7291,7 @@
         <v>398</v>
       </c>
       <c r="C397" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -7299,7 +7302,7 @@
         <v>399</v>
       </c>
       <c r="C398" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -7310,7 +7313,7 @@
         <v>400</v>
       </c>
       <c r="C399" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -7332,7 +7335,7 @@
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -7343,7 +7346,7 @@
         <v>403</v>
       </c>
       <c r="C402" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -7365,7 +7368,7 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -7376,7 +7379,7 @@
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -7398,7 +7401,7 @@
         <v>408</v>
       </c>
       <c r="C407" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -7420,7 +7423,7 @@
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -7453,7 +7456,7 @@
         <v>413</v>
       </c>
       <c r="C412" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -7464,7 +7467,7 @@
         <v>414</v>
       </c>
       <c r="C413" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -7486,7 +7489,7 @@
         <v>416</v>
       </c>
       <c r="C415" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -7497,7 +7500,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7508,7 +7511,7 @@
         <v>418</v>
       </c>
       <c r="C417" t="s">
-        <v>733</v>
+        <v>779</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -7519,7 +7522,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7530,7 +7533,7 @@
         <v>420</v>
       </c>
       <c r="C419" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -7574,7 +7577,7 @@
         <v>424</v>
       </c>
       <c r="C423" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -7607,7 +7610,7 @@
         <v>427</v>
       </c>
       <c r="C426" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -7640,7 +7643,7 @@
         <v>430</v>
       </c>
       <c r="C429" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -7662,7 +7665,7 @@
         <v>432</v>
       </c>
       <c r="C431" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -7673,7 +7676,7 @@
         <v>433</v>
       </c>
       <c r="C432" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7684,7 +7687,7 @@
         <v>434</v>
       </c>
       <c r="C433" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -7695,7 +7698,7 @@
         <v>435</v>
       </c>
       <c r="C434" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -7706,7 +7709,7 @@
         <v>436</v>
       </c>
       <c r="C435" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -7761,7 +7764,7 @@
         <v>441</v>
       </c>
       <c r="C440" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7783,7 +7786,7 @@
         <v>443</v>
       </c>
       <c r="C442" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7794,7 +7797,7 @@
         <v>444</v>
       </c>
       <c r="C443" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -7838,7 +7841,7 @@
         <v>448</v>
       </c>
       <c r="C447" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -7860,7 +7863,7 @@
         <v>450</v>
       </c>
       <c r="C449" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -7871,7 +7874,7 @@
         <v>451</v>
       </c>
       <c r="C450" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -7893,7 +7896,7 @@
         <v>453</v>
       </c>
       <c r="C452" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -7926,7 +7929,7 @@
         <v>456</v>
       </c>
       <c r="C455" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -7937,7 +7940,7 @@
         <v>457</v>
       </c>
       <c r="C456" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -7959,7 +7962,7 @@
         <v>459</v>
       </c>
       <c r="C458" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -7970,7 +7973,7 @@
         <v>460</v>
       </c>
       <c r="C459" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -7992,7 +7995,7 @@
         <v>462</v>
       </c>
       <c r="C461" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -8003,7 +8006,7 @@
         <v>463</v>
       </c>
       <c r="C462" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -8014,7 +8017,7 @@
         <v>464</v>
       </c>
       <c r="C463" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -8025,7 +8028,7 @@
         <v>465</v>
       </c>
       <c r="C464" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -8080,7 +8083,7 @@
         <v>470</v>
       </c>
       <c r="C469" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -8124,7 +8127,7 @@
         <v>474</v>
       </c>
       <c r="C473" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -8146,7 +8149,7 @@
         <v>476</v>
       </c>
       <c r="C475" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -8157,7 +8160,7 @@
         <v>477</v>
       </c>
       <c r="C476" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -8168,7 +8171,7 @@
         <v>478</v>
       </c>
       <c r="C477" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -8179,7 +8182,7 @@
         <v>479</v>
       </c>
       <c r="C478" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -8190,7 +8193,7 @@
         <v>480</v>
       </c>
       <c r="C479" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -8223,7 +8226,7 @@
         <v>483</v>
       </c>
       <c r="C482" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -8234,7 +8237,7 @@
         <v>484</v>
       </c>
       <c r="C483" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -8267,7 +8270,7 @@
         <v>487</v>
       </c>
       <c r="C486" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -8278,7 +8281,7 @@
         <v>488</v>
       </c>
       <c r="C487" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -8289,7 +8292,7 @@
         <v>489</v>
       </c>
       <c r="C488" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -8311,7 +8314,7 @@
         <v>491</v>
       </c>
       <c r="C490" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -8322,7 +8325,7 @@
         <v>492</v>
       </c>
       <c r="C491" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -8333,7 +8336,7 @@
         <v>493</v>
       </c>
       <c r="C492" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -8388,7 +8391,7 @@
         <v>498</v>
       </c>
       <c r="C497" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -8410,7 +8413,7 @@
         <v>500</v>
       </c>
       <c r="C499" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -8421,7 +8424,7 @@
         <v>501</v>
       </c>
       <c r="C500" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -8432,7 +8435,7 @@
         <v>502</v>
       </c>
       <c r="C501" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -8454,7 +8457,7 @@
         <v>504</v>
       </c>
       <c r="C503" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -8465,7 +8468,7 @@
         <v>505</v>
       </c>
       <c r="C504" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -8476,7 +8479,7 @@
         <v>506</v>
       </c>
       <c r="C505" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -8487,7 +8490,7 @@
         <v>507</v>
       </c>
       <c r="C506" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -8509,7 +8512,7 @@
         <v>509</v>
       </c>
       <c r="C508" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -8520,7 +8523,7 @@
         <v>510</v>
       </c>
       <c r="C509" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -8542,7 +8545,7 @@
         <v>512</v>
       </c>
       <c r="C511" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -8553,7 +8556,7 @@
         <v>513</v>
       </c>
       <c r="C512" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -8564,7 +8567,7 @@
         <v>514</v>
       </c>
       <c r="C513" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -8586,7 +8589,7 @@
         <v>516</v>
       </c>
       <c r="C515" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -8597,7 +8600,7 @@
         <v>517</v>
       </c>
       <c r="C516" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -8663,7 +8666,7 @@
         <v>523</v>
       </c>
       <c r="C522" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -8674,7 +8677,7 @@
         <v>524</v>
       </c>
       <c r="C523" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -8685,7 +8688,7 @@
         <v>525</v>
       </c>
       <c r="C524" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -8696,7 +8699,7 @@
         <v>526</v>
       </c>
       <c r="C525" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -8707,7 +8710,7 @@
         <v>527</v>
       </c>
       <c r="C526" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -8718,7 +8721,7 @@
         <v>528</v>
       </c>
       <c r="C527" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -8740,7 +8743,7 @@
         <v>530</v>
       </c>
       <c r="C529" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -8751,7 +8754,7 @@
         <v>531</v>
       </c>
       <c r="C530" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -8773,7 +8776,7 @@
         <v>533</v>
       </c>
       <c r="C532" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -8784,7 +8787,7 @@
         <v>534</v>
       </c>
       <c r="C533" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -8806,7 +8809,7 @@
         <v>536</v>
       </c>
       <c r="C535" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -8817,7 +8820,7 @@
         <v>537</v>
       </c>
       <c r="C536" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -8850,7 +8853,7 @@
         <v>540</v>
       </c>
       <c r="C539" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -8861,7 +8864,7 @@
         <v>541</v>
       </c>
       <c r="C540" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -8883,7 +8886,7 @@
         <v>543</v>
       </c>
       <c r="C542" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -8894,7 +8897,7 @@
         <v>544</v>
       </c>
       <c r="C543" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -8905,7 +8908,7 @@
         <v>545</v>
       </c>
       <c r="C544" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -8927,7 +8930,7 @@
         <v>547</v>
       </c>
       <c r="C546" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -8949,7 +8952,7 @@
         <v>549</v>
       </c>
       <c r="C548" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -8960,7 +8963,7 @@
         <v>550</v>
       </c>
       <c r="C549" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="550" spans="1:3">
